--- a/LineGame/Balidance/parsheet/ngparsheet.xlsx
+++ b/LineGame/Balidance/parsheet/ngparsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terry_hsiesh/Slot/LineGame/Balidance/parsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC15082-3222-EA47-9CAF-35DB5CD84326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD33E27-B14F-CE44-B6A1-162304077E74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20040" yWindow="460" windowWidth="20040" windowHeight="21140" xr2:uid="{13BB5AA7-1582-6F4B-9695-E5E1C1D8F7F8}"/>
   </bookViews>
@@ -301,7 +301,7 @@
             <v>9</v>
           </cell>
           <cell r="X5">
-            <v>2</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="6">
@@ -363,7 +363,7 @@
             <v>2</v>
           </cell>
           <cell r="V9">
-            <v>12</v>
+            <v>3</v>
           </cell>
           <cell r="W9">
             <v>12</v>
@@ -386,7 +386,7 @@
             <v>7</v>
           </cell>
           <cell r="X10">
-            <v>2</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="11">
@@ -400,7 +400,7 @@
             <v>2</v>
           </cell>
           <cell r="W11">
-            <v>1</v>
+            <v>4</v>
           </cell>
           <cell r="X11">
             <v>2</v>
@@ -411,10 +411,10 @@
             <v>8</v>
           </cell>
           <cell r="U12">
-            <v>8</v>
+            <v>10</v>
           </cell>
           <cell r="V12">
-            <v>4</v>
+            <v>12</v>
           </cell>
           <cell r="W12">
             <v>6</v>
@@ -428,7 +428,7 @@
             <v>5</v>
           </cell>
           <cell r="U13">
-            <v>1</v>
+            <v>7</v>
           </cell>
           <cell r="V13">
             <v>8</v>
@@ -437,12 +437,12 @@
             <v>7</v>
           </cell>
           <cell r="X13">
-            <v>12</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="14">
           <cell r="T14">
-            <v>11</v>
+            <v>7</v>
           </cell>
           <cell r="U14">
             <v>5</v>
@@ -468,10 +468,10 @@
             <v>1</v>
           </cell>
           <cell r="W15">
-            <v>5</v>
+            <v>12</v>
           </cell>
           <cell r="X15">
-            <v>3</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="16">
@@ -499,7 +499,7 @@
             <v>6</v>
           </cell>
           <cell r="V17">
-            <v>4</v>
+            <v>12</v>
           </cell>
           <cell r="W17">
             <v>8</v>
@@ -556,7 +556,7 @@
             <v>6</v>
           </cell>
           <cell r="X20">
-            <v>4</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="21">
@@ -584,7 +584,7 @@
             <v>9</v>
           </cell>
           <cell r="V22">
-            <v>4</v>
+            <v>12</v>
           </cell>
           <cell r="W22">
             <v>9</v>
@@ -641,7 +641,7 @@
             <v>9</v>
           </cell>
           <cell r="X25">
-            <v>4</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="26">
@@ -669,7 +669,7 @@
             <v>5</v>
           </cell>
           <cell r="V27">
-            <v>11</v>
+            <v>12</v>
           </cell>
           <cell r="W27">
             <v>4</v>
@@ -697,7 +697,7 @@
         </row>
         <row r="29">
           <cell r="T29">
-            <v>6</v>
+            <v>10</v>
           </cell>
           <cell r="U29">
             <v>10</v>
@@ -717,7 +717,7 @@
             <v>8</v>
           </cell>
           <cell r="U30">
-            <v>11</v>
+            <v>4</v>
           </cell>
           <cell r="V30">
             <v>6</v>
@@ -737,7 +737,7 @@
             <v>6</v>
           </cell>
           <cell r="V31">
-            <v>5</v>
+            <v>7</v>
           </cell>
           <cell r="W31">
             <v>6</v>
@@ -754,7 +754,7 @@
             <v>3</v>
           </cell>
           <cell r="V32">
-            <v>5</v>
+            <v>12</v>
           </cell>
           <cell r="W32">
             <v>7</v>
@@ -839,13 +839,1205 @@
             <v>5</v>
           </cell>
           <cell r="V37">
-            <v>1</v>
+            <v>12</v>
           </cell>
           <cell r="W37">
             <v>8</v>
           </cell>
           <cell r="X37">
             <v>3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="T38">
+            <v>11</v>
+          </cell>
+          <cell r="U38">
+            <v>8</v>
+          </cell>
+          <cell r="V38">
+            <v>1</v>
+          </cell>
+          <cell r="W38">
+            <v>7</v>
+          </cell>
+          <cell r="X38">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="T39">
+            <v>8</v>
+          </cell>
+          <cell r="U39">
+            <v>9</v>
+          </cell>
+          <cell r="V39">
+            <v>10</v>
+          </cell>
+          <cell r="W39">
+            <v>3</v>
+          </cell>
+          <cell r="X39">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="T40">
+            <v>3</v>
+          </cell>
+          <cell r="U40">
+            <v>4</v>
+          </cell>
+          <cell r="V40">
+            <v>3</v>
+          </cell>
+          <cell r="W40">
+            <v>8</v>
+          </cell>
+          <cell r="X40">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="T41">
+            <v>9</v>
+          </cell>
+          <cell r="U41">
+            <v>7</v>
+          </cell>
+          <cell r="V41">
+            <v>8</v>
+          </cell>
+          <cell r="W41">
+            <v>7</v>
+          </cell>
+          <cell r="X41">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="T42">
+            <v>10</v>
+          </cell>
+          <cell r="U42">
+            <v>10</v>
+          </cell>
+          <cell r="V42">
+            <v>7</v>
+          </cell>
+          <cell r="W42">
+            <v>5</v>
+          </cell>
+          <cell r="X42">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="T43">
+            <v>2</v>
+          </cell>
+          <cell r="U43">
+            <v>1</v>
+          </cell>
+          <cell r="V43">
+            <v>4</v>
+          </cell>
+          <cell r="W43">
+            <v>9</v>
+          </cell>
+          <cell r="X43">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="T44">
+            <v>7</v>
+          </cell>
+          <cell r="U44">
+            <v>9</v>
+          </cell>
+          <cell r="V44">
+            <v>9</v>
+          </cell>
+          <cell r="W44">
+            <v>7</v>
+          </cell>
+          <cell r="X44">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="T45">
+            <v>4</v>
+          </cell>
+          <cell r="U45">
+            <v>3</v>
+          </cell>
+          <cell r="V45">
+            <v>8</v>
+          </cell>
+          <cell r="W45">
+            <v>8</v>
+          </cell>
+          <cell r="X45">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="T46">
+            <v>10</v>
+          </cell>
+          <cell r="U46">
+            <v>10</v>
+          </cell>
+          <cell r="V46">
+            <v>4</v>
+          </cell>
+          <cell r="W46">
+            <v>4</v>
+          </cell>
+          <cell r="X46">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="T47">
+            <v>7</v>
+          </cell>
+          <cell r="U47">
+            <v>7</v>
+          </cell>
+          <cell r="V47">
+            <v>7</v>
+          </cell>
+          <cell r="W47">
+            <v>6</v>
+          </cell>
+          <cell r="X47">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="T48">
+            <v>3</v>
+          </cell>
+          <cell r="U48">
+            <v>4</v>
+          </cell>
+          <cell r="V48">
+            <v>9</v>
+          </cell>
+          <cell r="W48">
+            <v>8</v>
+          </cell>
+          <cell r="X48">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="T49">
+            <v>8</v>
+          </cell>
+          <cell r="U49">
+            <v>3</v>
+          </cell>
+          <cell r="V49">
+            <v>11</v>
+          </cell>
+          <cell r="W49">
+            <v>3</v>
+          </cell>
+          <cell r="X49">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="T50">
+            <v>5</v>
+          </cell>
+          <cell r="U50">
+            <v>6</v>
+          </cell>
+          <cell r="V50">
+            <v>6</v>
+          </cell>
+          <cell r="W50">
+            <v>9</v>
+          </cell>
+          <cell r="X50">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="T51">
+            <v>7</v>
+          </cell>
+          <cell r="U51">
+            <v>4</v>
+          </cell>
+          <cell r="V51">
+            <v>9</v>
+          </cell>
+          <cell r="W51">
+            <v>8</v>
+          </cell>
+          <cell r="X51">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="T52">
+            <v>4</v>
+          </cell>
+          <cell r="U52">
+            <v>10</v>
+          </cell>
+          <cell r="V52">
+            <v>4</v>
+          </cell>
+          <cell r="W52">
+            <v>11</v>
+          </cell>
+          <cell r="X52">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="T53">
+            <v>10</v>
+          </cell>
+          <cell r="U53">
+            <v>6</v>
+          </cell>
+          <cell r="V53">
+            <v>7</v>
+          </cell>
+          <cell r="W53">
+            <v>9</v>
+          </cell>
+          <cell r="X53">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="T54">
+            <v>8</v>
+          </cell>
+          <cell r="U54">
+            <v>11</v>
+          </cell>
+          <cell r="V54">
+            <v>9</v>
+          </cell>
+          <cell r="W54">
+            <v>6</v>
+          </cell>
+          <cell r="X54">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="T55">
+            <v>5</v>
+          </cell>
+          <cell r="U55">
+            <v>9</v>
+          </cell>
+          <cell r="V55">
+            <v>11</v>
+          </cell>
+          <cell r="W55">
+            <v>11</v>
+          </cell>
+          <cell r="X55">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="T56">
+            <v>7</v>
+          </cell>
+          <cell r="U56">
+            <v>10</v>
+          </cell>
+          <cell r="V56">
+            <v>6</v>
+          </cell>
+          <cell r="W56">
+            <v>7</v>
+          </cell>
+          <cell r="X56">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="T57">
+            <v>8</v>
+          </cell>
+          <cell r="U57">
+            <v>11</v>
+          </cell>
+          <cell r="V57">
+            <v>9</v>
+          </cell>
+          <cell r="W57">
+            <v>9</v>
+          </cell>
+          <cell r="X57">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="T58">
+            <v>3</v>
+          </cell>
+          <cell r="U58">
+            <v>9</v>
+          </cell>
+          <cell r="V58">
+            <v>3</v>
+          </cell>
+          <cell r="W58">
+            <v>11</v>
+          </cell>
+          <cell r="X58">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="T59">
+            <v>7</v>
+          </cell>
+          <cell r="U59">
+            <v>6</v>
+          </cell>
+          <cell r="V59">
+            <v>6</v>
+          </cell>
+          <cell r="W59">
+            <v>7</v>
+          </cell>
+          <cell r="X59">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="T60">
+            <v>10</v>
+          </cell>
+          <cell r="U60">
+            <v>1</v>
+          </cell>
+          <cell r="V60">
+            <v>9</v>
+          </cell>
+          <cell r="W60">
+            <v>8</v>
+          </cell>
+          <cell r="X60">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="T61">
+            <v>2</v>
+          </cell>
+          <cell r="U61">
+            <v>10</v>
+          </cell>
+          <cell r="V61">
+            <v>4</v>
+          </cell>
+          <cell r="W61">
+            <v>3</v>
+          </cell>
+          <cell r="X61">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="T62">
+            <v>4</v>
+          </cell>
+          <cell r="U62">
+            <v>6</v>
+          </cell>
+          <cell r="V62">
+            <v>7</v>
+          </cell>
+          <cell r="W62">
+            <v>6</v>
+          </cell>
+          <cell r="X62">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="T63">
+            <v>7</v>
+          </cell>
+          <cell r="U63">
+            <v>1</v>
+          </cell>
+          <cell r="V63">
+            <v>6</v>
+          </cell>
+          <cell r="W63">
+            <v>8</v>
+          </cell>
+          <cell r="X63">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="T64">
+            <v>1</v>
+          </cell>
+          <cell r="U64">
+            <v>10</v>
+          </cell>
+          <cell r="V64">
+            <v>4</v>
+          </cell>
+          <cell r="W64">
+            <v>12</v>
+          </cell>
+          <cell r="X64">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="T65">
+            <v>10</v>
+          </cell>
+          <cell r="U65">
+            <v>4</v>
+          </cell>
+          <cell r="V65">
+            <v>9</v>
+          </cell>
+          <cell r="W65">
+            <v>5</v>
+          </cell>
+          <cell r="X65">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="T66">
+            <v>7</v>
+          </cell>
+          <cell r="U66">
+            <v>9</v>
+          </cell>
+          <cell r="V66">
+            <v>8</v>
+          </cell>
+          <cell r="W66">
+            <v>3</v>
+          </cell>
+          <cell r="X66">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="T67">
+            <v>1</v>
+          </cell>
+          <cell r="U67">
+            <v>10</v>
+          </cell>
+          <cell r="V67">
+            <v>3</v>
+          </cell>
+          <cell r="W67">
+            <v>9</v>
+          </cell>
+          <cell r="X67">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="T68">
+            <v>9</v>
+          </cell>
+          <cell r="U68">
+            <v>4</v>
+          </cell>
+          <cell r="V68">
+            <v>7</v>
+          </cell>
+          <cell r="W68">
+            <v>5</v>
+          </cell>
+          <cell r="X68">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="T69">
+            <v>7</v>
+          </cell>
+          <cell r="U69">
+            <v>7</v>
+          </cell>
+          <cell r="V69">
+            <v>8</v>
+          </cell>
+          <cell r="W69">
+            <v>8</v>
+          </cell>
+          <cell r="X69">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="T70">
+            <v>4</v>
+          </cell>
+          <cell r="U70">
+            <v>9</v>
+          </cell>
+          <cell r="V70">
+            <v>9</v>
+          </cell>
+          <cell r="W70">
+            <v>7</v>
+          </cell>
+          <cell r="X70">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="T71">
+            <v>9</v>
+          </cell>
+          <cell r="U71">
+            <v>4</v>
+          </cell>
+          <cell r="V71">
+            <v>12</v>
+          </cell>
+          <cell r="W71">
+            <v>3</v>
+          </cell>
+          <cell r="X71">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="T72">
+            <v>7</v>
+          </cell>
+          <cell r="U72">
+            <v>7</v>
+          </cell>
+          <cell r="V72">
+            <v>8</v>
+          </cell>
+          <cell r="W72">
+            <v>9</v>
+          </cell>
+          <cell r="X72">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="T73">
+            <v>4</v>
+          </cell>
+          <cell r="U73">
+            <v>9</v>
+          </cell>
+          <cell r="V73">
+            <v>9</v>
+          </cell>
+          <cell r="W73">
+            <v>6</v>
+          </cell>
+          <cell r="X73">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="T74">
+            <v>6</v>
+          </cell>
+          <cell r="W74">
+            <v>3</v>
+          </cell>
+          <cell r="X74">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="T75">
+            <v>2</v>
+          </cell>
+          <cell r="W75">
+            <v>7</v>
+          </cell>
+          <cell r="X75">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="T76">
+            <v>7</v>
+          </cell>
+          <cell r="W76">
+            <v>6</v>
+          </cell>
+          <cell r="X76">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="T77">
+            <v>10</v>
+          </cell>
+          <cell r="W77">
+            <v>5</v>
+          </cell>
+          <cell r="X77">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="T78">
+            <v>4</v>
+          </cell>
+          <cell r="W78">
+            <v>4</v>
+          </cell>
+          <cell r="X78">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="T79">
+            <v>9</v>
+          </cell>
+          <cell r="W79">
+            <v>12</v>
+          </cell>
+          <cell r="X79">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="T80">
+            <v>7</v>
+          </cell>
+          <cell r="W80">
+            <v>6</v>
+          </cell>
+          <cell r="X80">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="T81">
+            <v>3</v>
+          </cell>
+          <cell r="W81">
+            <v>2</v>
+          </cell>
+          <cell r="X81">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="T82">
+            <v>8</v>
+          </cell>
+          <cell r="W82">
+            <v>8</v>
+          </cell>
+          <cell r="X82">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="T83">
+            <v>9</v>
+          </cell>
+          <cell r="W83">
+            <v>9</v>
+          </cell>
+          <cell r="X83">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="T84">
+            <v>5</v>
+          </cell>
+          <cell r="W84">
+            <v>4</v>
+          </cell>
+          <cell r="X84">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="T85">
+            <v>10</v>
+          </cell>
+          <cell r="W85">
+            <v>7</v>
+          </cell>
+          <cell r="X85">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="T86">
+            <v>8</v>
+          </cell>
+          <cell r="W86">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="W87">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="W88">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="W89">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="W90">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="W91">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="W92">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="W93">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="W94">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="W95">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="W96">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="W97">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="W98">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="W99">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="W100">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="W101">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="W102">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="W103">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="W104">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="W105">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="W106">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="W107">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="W108">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="W109">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="W110">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="W111">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="W112">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="W113">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="W114">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="W115">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="W116">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="W117">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="W118">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="W119">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="W120">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="W121">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="W122">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="W123">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="W124">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="W125">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="W126">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="W127">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="W128">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="W129">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="W130">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="W131">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="W132">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="W133">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="W134">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="W135">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="W136">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="W137">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="W138">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="W139">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="W140">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="W141">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="W142">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="W143">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="W144">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="W145">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="W146">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="W147">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="W148">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="W149">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="W150">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="W151">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="W152">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="W153">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="W154">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="W155">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="W156">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="W157">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="W158">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="W159">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="W160">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="W161">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="W162">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="W163">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="W164">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="W165">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="W166">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="W167">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="W168">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="W169">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="W170">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="W171">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="W172">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="W173">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="W174">
+            <v>9</v>
           </cell>
         </row>
       </sheetData>
@@ -1249,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C679CF-C273-9E4F-9759-41197508142A}">
   <dimension ref="A1:E601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1318,7 +2510,7 @@
       </c>
       <c r="E3" s="7">
         <f>IF('[1]Regular Symbol'!X5="","",'[1]Regular Symbol'!X5)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1398,7 +2590,7 @@
       </c>
       <c r="C7" s="7">
         <f>IF('[1]Regular Symbol'!V9="","",'[1]Regular Symbol'!V9)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
         <f>IF('[1]Regular Symbol'!W9="","",'[1]Regular Symbol'!W9)</f>
@@ -1428,7 +2620,7 @@
       </c>
       <c r="E8" s="7">
         <f>IF('[1]Regular Symbol'!X10="","",'[1]Regular Symbol'!X10)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1446,7 +2638,7 @@
       </c>
       <c r="D9" s="7">
         <f>IF('[1]Regular Symbol'!W11="","",'[1]Regular Symbol'!W11)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" s="7">
         <f>IF('[1]Regular Symbol'!X11="","",'[1]Regular Symbol'!X11)</f>
@@ -1460,11 +2652,11 @@
       </c>
       <c r="B10" s="7">
         <f>IF('[1]Regular Symbol'!U12="","",'[1]Regular Symbol'!U12)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7">
         <f>IF('[1]Regular Symbol'!V12="","",'[1]Regular Symbol'!V12)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
         <f>IF('[1]Regular Symbol'!W12="","",'[1]Regular Symbol'!W12)</f>
@@ -1482,7 +2674,7 @@
       </c>
       <c r="B11" s="7">
         <f>IF('[1]Regular Symbol'!U13="","",'[1]Regular Symbol'!U13)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C11" s="7">
         <f>IF('[1]Regular Symbol'!V13="","",'[1]Regular Symbol'!V13)</f>
@@ -1494,13 +2686,13 @@
       </c>
       <c r="E11" s="7">
         <f>IF('[1]Regular Symbol'!X13="","",'[1]Regular Symbol'!X13)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="7">
         <f>IF('[1]Regular Symbol'!T14="","",'[1]Regular Symbol'!T14)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="7">
         <f>IF('[1]Regular Symbol'!U14="","",'[1]Regular Symbol'!U14)</f>
@@ -1534,11 +2726,11 @@
       </c>
       <c r="D13" s="7">
         <f>IF('[1]Regular Symbol'!W15="","",'[1]Regular Symbol'!W15)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E13" s="7">
         <f>IF('[1]Regular Symbol'!X15="","",'[1]Regular Symbol'!X15)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1574,7 +2766,7 @@
       </c>
       <c r="C15" s="7">
         <f>IF('[1]Regular Symbol'!V17="","",'[1]Regular Symbol'!V17)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7">
         <f>IF('[1]Regular Symbol'!W17="","",'[1]Regular Symbol'!W17)</f>
@@ -1648,7 +2840,7 @@
       </c>
       <c r="E18" s="7">
         <f>IF('[1]Regular Symbol'!X20="","",'[1]Regular Symbol'!X20)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1684,7 +2876,7 @@
       </c>
       <c r="C20" s="7">
         <f>IF('[1]Regular Symbol'!V22="","",'[1]Regular Symbol'!V22)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7">
         <f>IF('[1]Regular Symbol'!W22="","",'[1]Regular Symbol'!W22)</f>
@@ -1758,7 +2950,7 @@
       </c>
       <c r="E23" s="7">
         <f>IF('[1]Regular Symbol'!X25="","",'[1]Regular Symbol'!X25)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1794,7 +2986,7 @@
       </c>
       <c r="C25" s="7">
         <f>IF('[1]Regular Symbol'!V27="","",'[1]Regular Symbol'!V27)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="7">
         <f>IF('[1]Regular Symbol'!W27="","",'[1]Regular Symbol'!W27)</f>
@@ -1830,7 +3022,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="7">
         <f>IF('[1]Regular Symbol'!T29="","",'[1]Regular Symbol'!T29)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B27" s="7">
         <f>IF('[1]Regular Symbol'!U29="","",'[1]Regular Symbol'!U29)</f>
@@ -1856,7 +3048,7 @@
       </c>
       <c r="B28" s="7">
         <f>IF('[1]Regular Symbol'!U30="","",'[1]Regular Symbol'!U30)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C28" s="7">
         <f>IF('[1]Regular Symbol'!V30="","",'[1]Regular Symbol'!V30)</f>
@@ -1882,7 +3074,7 @@
       </c>
       <c r="C29" s="7">
         <f>IF('[1]Regular Symbol'!V31="","",'[1]Regular Symbol'!V31)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29" s="7">
         <f>IF('[1]Regular Symbol'!W31="","",'[1]Regular Symbol'!W31)</f>
@@ -1904,7 +3096,7 @@
       </c>
       <c r="C30" s="7">
         <f>IF('[1]Regular Symbol'!V32="","",'[1]Regular Symbol'!V32)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7">
         <f>IF('[1]Regular Symbol'!W32="","",'[1]Regular Symbol'!W32)</f>
@@ -2014,7 +3206,7 @@
       </c>
       <c r="C35" s="7">
         <f>IF('[1]Regular Symbol'!V37="","",'[1]Regular Symbol'!V37)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D35" s="7">
         <f>IF('[1]Regular Symbol'!W37="","",'[1]Regular Symbol'!W37)</f>
@@ -2026,801 +3218,801 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="7" t="str">
+      <c r="A36" s="7">
         <f>IF('[1]Regular Symbol'!T38="","",'[1]Regular Symbol'!T38)</f>
-        <v/>
-      </c>
-      <c r="B36" s="7" t="str">
+        <v>11</v>
+      </c>
+      <c r="B36" s="7">
         <f>IF('[1]Regular Symbol'!U38="","",'[1]Regular Symbol'!U38)</f>
-        <v/>
-      </c>
-      <c r="C36" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="C36" s="7">
         <f>IF('[1]Regular Symbol'!V38="","",'[1]Regular Symbol'!V38)</f>
-        <v/>
-      </c>
-      <c r="D36" s="7" t="str">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7">
         <f>IF('[1]Regular Symbol'!W38="","",'[1]Regular Symbol'!W38)</f>
-        <v/>
-      </c>
-      <c r="E36" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="E36" s="7">
         <f>IF('[1]Regular Symbol'!X38="","",'[1]Regular Symbol'!X38)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="7" t="str">
+      <c r="A37" s="7">
         <f>IF('[1]Regular Symbol'!T39="","",'[1]Regular Symbol'!T39)</f>
-        <v/>
-      </c>
-      <c r="B37" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="B37" s="7">
         <f>IF('[1]Regular Symbol'!U39="","",'[1]Regular Symbol'!U39)</f>
-        <v/>
-      </c>
-      <c r="C37" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="C37" s="7">
         <f>IF('[1]Regular Symbol'!V39="","",'[1]Regular Symbol'!V39)</f>
-        <v/>
-      </c>
-      <c r="D37" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="D37" s="7">
         <f>IF('[1]Regular Symbol'!W39="","",'[1]Regular Symbol'!W39)</f>
-        <v/>
-      </c>
-      <c r="E37" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="E37" s="7">
         <f>IF('[1]Regular Symbol'!X39="","",'[1]Regular Symbol'!X39)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="7" t="str">
+      <c r="A38" s="7">
         <f>IF('[1]Regular Symbol'!T40="","",'[1]Regular Symbol'!T40)</f>
-        <v/>
-      </c>
-      <c r="B38" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="B38" s="7">
         <f>IF('[1]Regular Symbol'!U40="","",'[1]Regular Symbol'!U40)</f>
-        <v/>
-      </c>
-      <c r="C38" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7">
         <f>IF('[1]Regular Symbol'!V40="","",'[1]Regular Symbol'!V40)</f>
-        <v/>
-      </c>
-      <c r="D38" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
         <f>IF('[1]Regular Symbol'!W40="","",'[1]Regular Symbol'!W40)</f>
-        <v/>
-      </c>
-      <c r="E38" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="E38" s="7">
         <f>IF('[1]Regular Symbol'!X40="","",'[1]Regular Symbol'!X40)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="7" t="str">
+      <c r="A39" s="7">
         <f>IF('[1]Regular Symbol'!T41="","",'[1]Regular Symbol'!T41)</f>
-        <v/>
-      </c>
-      <c r="B39" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="B39" s="7">
         <f>IF('[1]Regular Symbol'!U41="","",'[1]Regular Symbol'!U41)</f>
-        <v/>
-      </c>
-      <c r="C39" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="C39" s="7">
         <f>IF('[1]Regular Symbol'!V41="","",'[1]Regular Symbol'!V41)</f>
-        <v/>
-      </c>
-      <c r="D39" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="D39" s="7">
         <f>IF('[1]Regular Symbol'!W41="","",'[1]Regular Symbol'!W41)</f>
-        <v/>
-      </c>
-      <c r="E39" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="E39" s="7">
         <f>IF('[1]Regular Symbol'!X41="","",'[1]Regular Symbol'!X41)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="7" t="str">
+      <c r="A40" s="7">
         <f>IF('[1]Regular Symbol'!T42="","",'[1]Regular Symbol'!T42)</f>
-        <v/>
-      </c>
-      <c r="B40" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="B40" s="7">
         <f>IF('[1]Regular Symbol'!U42="","",'[1]Regular Symbol'!U42)</f>
-        <v/>
-      </c>
-      <c r="C40" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="C40" s="7">
         <f>IF('[1]Regular Symbol'!V42="","",'[1]Regular Symbol'!V42)</f>
-        <v/>
-      </c>
-      <c r="D40" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="D40" s="7">
         <f>IF('[1]Regular Symbol'!W42="","",'[1]Regular Symbol'!W42)</f>
-        <v/>
-      </c>
-      <c r="E40" s="7" t="str">
+        <v>5</v>
+      </c>
+      <c r="E40" s="7">
         <f>IF('[1]Regular Symbol'!X42="","",'[1]Regular Symbol'!X42)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="7" t="str">
+      <c r="A41" s="7">
         <f>IF('[1]Regular Symbol'!T43="","",'[1]Regular Symbol'!T43)</f>
-        <v/>
-      </c>
-      <c r="B41" s="7" t="str">
+        <v>2</v>
+      </c>
+      <c r="B41" s="7">
         <f>IF('[1]Regular Symbol'!U43="","",'[1]Regular Symbol'!U43)</f>
-        <v/>
-      </c>
-      <c r="C41" s="7" t="str">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7">
         <f>IF('[1]Regular Symbol'!V43="","",'[1]Regular Symbol'!V43)</f>
-        <v/>
-      </c>
-      <c r="D41" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7">
         <f>IF('[1]Regular Symbol'!W43="","",'[1]Regular Symbol'!W43)</f>
-        <v/>
-      </c>
-      <c r="E41" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="E41" s="7">
         <f>IF('[1]Regular Symbol'!X43="","",'[1]Regular Symbol'!X43)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="7" t="str">
+      <c r="A42" s="7">
         <f>IF('[1]Regular Symbol'!T44="","",'[1]Regular Symbol'!T44)</f>
-        <v/>
-      </c>
-      <c r="B42" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="B42" s="7">
         <f>IF('[1]Regular Symbol'!U44="","",'[1]Regular Symbol'!U44)</f>
-        <v/>
-      </c>
-      <c r="C42" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="C42" s="7">
         <f>IF('[1]Regular Symbol'!V44="","",'[1]Regular Symbol'!V44)</f>
-        <v/>
-      </c>
-      <c r="D42" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="D42" s="7">
         <f>IF('[1]Regular Symbol'!W44="","",'[1]Regular Symbol'!W44)</f>
-        <v/>
-      </c>
-      <c r="E42" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="E42" s="7">
         <f>IF('[1]Regular Symbol'!X44="","",'[1]Regular Symbol'!X44)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="7" t="str">
+      <c r="A43" s="7">
         <f>IF('[1]Regular Symbol'!T45="","",'[1]Regular Symbol'!T45)</f>
-        <v/>
-      </c>
-      <c r="B43" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="B43" s="7">
         <f>IF('[1]Regular Symbol'!U45="","",'[1]Regular Symbol'!U45)</f>
-        <v/>
-      </c>
-      <c r="C43" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <f>IF('[1]Regular Symbol'!V45="","",'[1]Regular Symbol'!V45)</f>
-        <v/>
-      </c>
-      <c r="D43" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="D43" s="7">
         <f>IF('[1]Regular Symbol'!W45="","",'[1]Regular Symbol'!W45)</f>
-        <v/>
-      </c>
-      <c r="E43" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="E43" s="7">
         <f>IF('[1]Regular Symbol'!X45="","",'[1]Regular Symbol'!X45)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="7" t="str">
+      <c r="A44" s="7">
         <f>IF('[1]Regular Symbol'!T46="","",'[1]Regular Symbol'!T46)</f>
-        <v/>
-      </c>
-      <c r="B44" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="B44" s="7">
         <f>IF('[1]Regular Symbol'!U46="","",'[1]Regular Symbol'!U46)</f>
-        <v/>
-      </c>
-      <c r="C44" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="C44" s="7">
         <f>IF('[1]Regular Symbol'!V46="","",'[1]Regular Symbol'!V46)</f>
-        <v/>
-      </c>
-      <c r="D44" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="D44" s="7">
         <f>IF('[1]Regular Symbol'!W46="","",'[1]Regular Symbol'!W46)</f>
-        <v/>
-      </c>
-      <c r="E44" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="E44" s="7">
         <f>IF('[1]Regular Symbol'!X46="","",'[1]Regular Symbol'!X46)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="7" t="str">
+      <c r="A45" s="7">
         <f>IF('[1]Regular Symbol'!T47="","",'[1]Regular Symbol'!T47)</f>
-        <v/>
-      </c>
-      <c r="B45" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="B45" s="7">
         <f>IF('[1]Regular Symbol'!U47="","",'[1]Regular Symbol'!U47)</f>
-        <v/>
-      </c>
-      <c r="C45" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="C45" s="7">
         <f>IF('[1]Regular Symbol'!V47="","",'[1]Regular Symbol'!V47)</f>
-        <v/>
-      </c>
-      <c r="D45" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="D45" s="7">
         <f>IF('[1]Regular Symbol'!W47="","",'[1]Regular Symbol'!W47)</f>
-        <v/>
-      </c>
-      <c r="E45" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="E45" s="7">
         <f>IF('[1]Regular Symbol'!X47="","",'[1]Regular Symbol'!X47)</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="7" t="str">
+      <c r="A46" s="7">
         <f>IF('[1]Regular Symbol'!T48="","",'[1]Regular Symbol'!T48)</f>
-        <v/>
-      </c>
-      <c r="B46" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="B46" s="7">
         <f>IF('[1]Regular Symbol'!U48="","",'[1]Regular Symbol'!U48)</f>
-        <v/>
-      </c>
-      <c r="C46" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7">
         <f>IF('[1]Regular Symbol'!V48="","",'[1]Regular Symbol'!V48)</f>
-        <v/>
-      </c>
-      <c r="D46" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="D46" s="7">
         <f>IF('[1]Regular Symbol'!W48="","",'[1]Regular Symbol'!W48)</f>
-        <v/>
-      </c>
-      <c r="E46" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="E46" s="7">
         <f>IF('[1]Regular Symbol'!X48="","",'[1]Regular Symbol'!X48)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="7" t="str">
+      <c r="A47" s="7">
         <f>IF('[1]Regular Symbol'!T49="","",'[1]Regular Symbol'!T49)</f>
-        <v/>
-      </c>
-      <c r="B47" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="B47" s="7">
         <f>IF('[1]Regular Symbol'!U49="","",'[1]Regular Symbol'!U49)</f>
-        <v/>
-      </c>
-      <c r="C47" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="C47" s="7">
         <f>IF('[1]Regular Symbol'!V49="","",'[1]Regular Symbol'!V49)</f>
-        <v/>
-      </c>
-      <c r="D47" s="7" t="str">
+        <v>11</v>
+      </c>
+      <c r="D47" s="7">
         <f>IF('[1]Regular Symbol'!W49="","",'[1]Regular Symbol'!W49)</f>
-        <v/>
-      </c>
-      <c r="E47" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="E47" s="7">
         <f>IF('[1]Regular Symbol'!X49="","",'[1]Regular Symbol'!X49)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="7" t="str">
+      <c r="A48" s="7">
         <f>IF('[1]Regular Symbol'!T50="","",'[1]Regular Symbol'!T50)</f>
-        <v/>
-      </c>
-      <c r="B48" s="7" t="str">
+        <v>5</v>
+      </c>
+      <c r="B48" s="7">
         <f>IF('[1]Regular Symbol'!U50="","",'[1]Regular Symbol'!U50)</f>
-        <v/>
-      </c>
-      <c r="C48" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="C48" s="7">
         <f>IF('[1]Regular Symbol'!V50="","",'[1]Regular Symbol'!V50)</f>
-        <v/>
-      </c>
-      <c r="D48" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="D48" s="7">
         <f>IF('[1]Regular Symbol'!W50="","",'[1]Regular Symbol'!W50)</f>
-        <v/>
-      </c>
-      <c r="E48" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="E48" s="7">
         <f>IF('[1]Regular Symbol'!X50="","",'[1]Regular Symbol'!X50)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="7" t="str">
+      <c r="A49" s="7">
         <f>IF('[1]Regular Symbol'!T51="","",'[1]Regular Symbol'!T51)</f>
-        <v/>
-      </c>
-      <c r="B49" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="B49" s="7">
         <f>IF('[1]Regular Symbol'!U51="","",'[1]Regular Symbol'!U51)</f>
-        <v/>
-      </c>
-      <c r="C49" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="C49" s="7">
         <f>IF('[1]Regular Symbol'!V51="","",'[1]Regular Symbol'!V51)</f>
-        <v/>
-      </c>
-      <c r="D49" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="D49" s="7">
         <f>IF('[1]Regular Symbol'!W51="","",'[1]Regular Symbol'!W51)</f>
-        <v/>
-      </c>
-      <c r="E49" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="E49" s="7">
         <f>IF('[1]Regular Symbol'!X51="","",'[1]Regular Symbol'!X51)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="7" t="str">
+      <c r="A50" s="7">
         <f>IF('[1]Regular Symbol'!T52="","",'[1]Regular Symbol'!T52)</f>
-        <v/>
-      </c>
-      <c r="B50" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="B50" s="7">
         <f>IF('[1]Regular Symbol'!U52="","",'[1]Regular Symbol'!U52)</f>
-        <v/>
-      </c>
-      <c r="C50" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="C50" s="7">
         <f>IF('[1]Regular Symbol'!V52="","",'[1]Regular Symbol'!V52)</f>
-        <v/>
-      </c>
-      <c r="D50" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7">
         <f>IF('[1]Regular Symbol'!W52="","",'[1]Regular Symbol'!W52)</f>
-        <v/>
-      </c>
-      <c r="E50" s="7" t="str">
+        <v>11</v>
+      </c>
+      <c r="E50" s="7">
         <f>IF('[1]Regular Symbol'!X52="","",'[1]Regular Symbol'!X52)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="7" t="str">
+      <c r="A51" s="7">
         <f>IF('[1]Regular Symbol'!T53="","",'[1]Regular Symbol'!T53)</f>
-        <v/>
-      </c>
-      <c r="B51" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="B51" s="7">
         <f>IF('[1]Regular Symbol'!U53="","",'[1]Regular Symbol'!U53)</f>
-        <v/>
-      </c>
-      <c r="C51" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7">
         <f>IF('[1]Regular Symbol'!V53="","",'[1]Regular Symbol'!V53)</f>
-        <v/>
-      </c>
-      <c r="D51" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="D51" s="7">
         <f>IF('[1]Regular Symbol'!W53="","",'[1]Regular Symbol'!W53)</f>
-        <v/>
-      </c>
-      <c r="E51" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="E51" s="7">
         <f>IF('[1]Regular Symbol'!X53="","",'[1]Regular Symbol'!X53)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="7" t="str">
+      <c r="A52" s="7">
         <f>IF('[1]Regular Symbol'!T54="","",'[1]Regular Symbol'!T54)</f>
-        <v/>
-      </c>
-      <c r="B52" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="B52" s="7">
         <f>IF('[1]Regular Symbol'!U54="","",'[1]Regular Symbol'!U54)</f>
-        <v/>
-      </c>
-      <c r="C52" s="7" t="str">
+        <v>11</v>
+      </c>
+      <c r="C52" s="7">
         <f>IF('[1]Regular Symbol'!V54="","",'[1]Regular Symbol'!V54)</f>
-        <v/>
-      </c>
-      <c r="D52" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="D52" s="7">
         <f>IF('[1]Regular Symbol'!W54="","",'[1]Regular Symbol'!W54)</f>
-        <v/>
-      </c>
-      <c r="E52" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="E52" s="7">
         <f>IF('[1]Regular Symbol'!X54="","",'[1]Regular Symbol'!X54)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="7" t="str">
+      <c r="A53" s="7">
         <f>IF('[1]Regular Symbol'!T55="","",'[1]Regular Symbol'!T55)</f>
-        <v/>
-      </c>
-      <c r="B53" s="7" t="str">
+        <v>5</v>
+      </c>
+      <c r="B53" s="7">
         <f>IF('[1]Regular Symbol'!U55="","",'[1]Regular Symbol'!U55)</f>
-        <v/>
-      </c>
-      <c r="C53" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="C53" s="7">
         <f>IF('[1]Regular Symbol'!V55="","",'[1]Regular Symbol'!V55)</f>
-        <v/>
-      </c>
-      <c r="D53" s="7" t="str">
+        <v>11</v>
+      </c>
+      <c r="D53" s="7">
         <f>IF('[1]Regular Symbol'!W55="","",'[1]Regular Symbol'!W55)</f>
-        <v/>
-      </c>
-      <c r="E53" s="7" t="str">
+        <v>11</v>
+      </c>
+      <c r="E53" s="7">
         <f>IF('[1]Regular Symbol'!X55="","",'[1]Regular Symbol'!X55)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="7" t="str">
+      <c r="A54" s="7">
         <f>IF('[1]Regular Symbol'!T56="","",'[1]Regular Symbol'!T56)</f>
-        <v/>
-      </c>
-      <c r="B54" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="B54" s="7">
         <f>IF('[1]Regular Symbol'!U56="","",'[1]Regular Symbol'!U56)</f>
-        <v/>
-      </c>
-      <c r="C54" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="C54" s="7">
         <f>IF('[1]Regular Symbol'!V56="","",'[1]Regular Symbol'!V56)</f>
-        <v/>
-      </c>
-      <c r="D54" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="D54" s="7">
         <f>IF('[1]Regular Symbol'!W56="","",'[1]Regular Symbol'!W56)</f>
-        <v/>
-      </c>
-      <c r="E54" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="E54" s="7">
         <f>IF('[1]Regular Symbol'!X56="","",'[1]Regular Symbol'!X56)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="7" t="str">
+      <c r="A55" s="7">
         <f>IF('[1]Regular Symbol'!T57="","",'[1]Regular Symbol'!T57)</f>
-        <v/>
-      </c>
-      <c r="B55" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="B55" s="7">
         <f>IF('[1]Regular Symbol'!U57="","",'[1]Regular Symbol'!U57)</f>
-        <v/>
-      </c>
-      <c r="C55" s="7" t="str">
+        <v>11</v>
+      </c>
+      <c r="C55" s="7">
         <f>IF('[1]Regular Symbol'!V57="","",'[1]Regular Symbol'!V57)</f>
-        <v/>
-      </c>
-      <c r="D55" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="D55" s="7">
         <f>IF('[1]Regular Symbol'!W57="","",'[1]Regular Symbol'!W57)</f>
-        <v/>
-      </c>
-      <c r="E55" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="E55" s="7">
         <f>IF('[1]Regular Symbol'!X57="","",'[1]Regular Symbol'!X57)</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="7" t="str">
+      <c r="A56" s="7">
         <f>IF('[1]Regular Symbol'!T58="","",'[1]Regular Symbol'!T58)</f>
-        <v/>
-      </c>
-      <c r="B56" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="B56" s="7">
         <f>IF('[1]Regular Symbol'!U58="","",'[1]Regular Symbol'!U58)</f>
-        <v/>
-      </c>
-      <c r="C56" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="C56" s="7">
         <f>IF('[1]Regular Symbol'!V58="","",'[1]Regular Symbol'!V58)</f>
-        <v/>
-      </c>
-      <c r="D56" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="D56" s="7">
         <f>IF('[1]Regular Symbol'!W58="","",'[1]Regular Symbol'!W58)</f>
-        <v/>
-      </c>
-      <c r="E56" s="7" t="str">
+        <v>11</v>
+      </c>
+      <c r="E56" s="7">
         <f>IF('[1]Regular Symbol'!X58="","",'[1]Regular Symbol'!X58)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="7" t="str">
+      <c r="A57" s="7">
         <f>IF('[1]Regular Symbol'!T59="","",'[1]Regular Symbol'!T59)</f>
-        <v/>
-      </c>
-      <c r="B57" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="B57" s="7">
         <f>IF('[1]Regular Symbol'!U59="","",'[1]Regular Symbol'!U59)</f>
-        <v/>
-      </c>
-      <c r="C57" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="C57" s="7">
         <f>IF('[1]Regular Symbol'!V59="","",'[1]Regular Symbol'!V59)</f>
-        <v/>
-      </c>
-      <c r="D57" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="D57" s="7">
         <f>IF('[1]Regular Symbol'!W59="","",'[1]Regular Symbol'!W59)</f>
-        <v/>
-      </c>
-      <c r="E57" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="E57" s="7">
         <f>IF('[1]Regular Symbol'!X59="","",'[1]Regular Symbol'!X59)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="7" t="str">
+      <c r="A58" s="7">
         <f>IF('[1]Regular Symbol'!T60="","",'[1]Regular Symbol'!T60)</f>
-        <v/>
-      </c>
-      <c r="B58" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="B58" s="7">
         <f>IF('[1]Regular Symbol'!U60="","",'[1]Regular Symbol'!U60)</f>
-        <v/>
-      </c>
-      <c r="C58" s="7" t="str">
+        <v>1</v>
+      </c>
+      <c r="C58" s="7">
         <f>IF('[1]Regular Symbol'!V60="","",'[1]Regular Symbol'!V60)</f>
-        <v/>
-      </c>
-      <c r="D58" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="D58" s="7">
         <f>IF('[1]Regular Symbol'!W60="","",'[1]Regular Symbol'!W60)</f>
-        <v/>
-      </c>
-      <c r="E58" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="E58" s="7">
         <f>IF('[1]Regular Symbol'!X60="","",'[1]Regular Symbol'!X60)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="7" t="str">
+      <c r="A59" s="7">
         <f>IF('[1]Regular Symbol'!T61="","",'[1]Regular Symbol'!T61)</f>
-        <v/>
-      </c>
-      <c r="B59" s="7" t="str">
+        <v>2</v>
+      </c>
+      <c r="B59" s="7">
         <f>IF('[1]Regular Symbol'!U61="","",'[1]Regular Symbol'!U61)</f>
-        <v/>
-      </c>
-      <c r="C59" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="C59" s="7">
         <f>IF('[1]Regular Symbol'!V61="","",'[1]Regular Symbol'!V61)</f>
-        <v/>
-      </c>
-      <c r="D59" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="D59" s="7">
         <f>IF('[1]Regular Symbol'!W61="","",'[1]Regular Symbol'!W61)</f>
-        <v/>
-      </c>
-      <c r="E59" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="E59" s="7">
         <f>IF('[1]Regular Symbol'!X61="","",'[1]Regular Symbol'!X61)</f>
-        <v/>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="7" t="str">
+      <c r="A60" s="7">
         <f>IF('[1]Regular Symbol'!T62="","",'[1]Regular Symbol'!T62)</f>
-        <v/>
-      </c>
-      <c r="B60" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="B60" s="7">
         <f>IF('[1]Regular Symbol'!U62="","",'[1]Regular Symbol'!U62)</f>
-        <v/>
-      </c>
-      <c r="C60" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="C60" s="7">
         <f>IF('[1]Regular Symbol'!V62="","",'[1]Regular Symbol'!V62)</f>
-        <v/>
-      </c>
-      <c r="D60" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="D60" s="7">
         <f>IF('[1]Regular Symbol'!W62="","",'[1]Regular Symbol'!W62)</f>
-        <v/>
-      </c>
-      <c r="E60" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="E60" s="7">
         <f>IF('[1]Regular Symbol'!X62="","",'[1]Regular Symbol'!X62)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="7" t="str">
+      <c r="A61" s="7">
         <f>IF('[1]Regular Symbol'!T63="","",'[1]Regular Symbol'!T63)</f>
-        <v/>
-      </c>
-      <c r="B61" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="B61" s="7">
         <f>IF('[1]Regular Symbol'!U63="","",'[1]Regular Symbol'!U63)</f>
-        <v/>
-      </c>
-      <c r="C61" s="7" t="str">
+        <v>1</v>
+      </c>
+      <c r="C61" s="7">
         <f>IF('[1]Regular Symbol'!V63="","",'[1]Regular Symbol'!V63)</f>
-        <v/>
-      </c>
-      <c r="D61" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="D61" s="7">
         <f>IF('[1]Regular Symbol'!W63="","",'[1]Regular Symbol'!W63)</f>
-        <v/>
-      </c>
-      <c r="E61" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="E61" s="7">
         <f>IF('[1]Regular Symbol'!X63="","",'[1]Regular Symbol'!X63)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="7" t="str">
+      <c r="A62" s="7">
         <f>IF('[1]Regular Symbol'!T64="","",'[1]Regular Symbol'!T64)</f>
-        <v/>
-      </c>
-      <c r="B62" s="7" t="str">
+        <v>1</v>
+      </c>
+      <c r="B62" s="7">
         <f>IF('[1]Regular Symbol'!U64="","",'[1]Regular Symbol'!U64)</f>
-        <v/>
-      </c>
-      <c r="C62" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="C62" s="7">
         <f>IF('[1]Regular Symbol'!V64="","",'[1]Regular Symbol'!V64)</f>
-        <v/>
-      </c>
-      <c r="D62" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="D62" s="7">
         <f>IF('[1]Regular Symbol'!W64="","",'[1]Regular Symbol'!W64)</f>
-        <v/>
-      </c>
-      <c r="E62" s="7" t="str">
+        <v>12</v>
+      </c>
+      <c r="E62" s="7">
         <f>IF('[1]Regular Symbol'!X64="","",'[1]Regular Symbol'!X64)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="7" t="str">
+      <c r="A63" s="7">
         <f>IF('[1]Regular Symbol'!T65="","",'[1]Regular Symbol'!T65)</f>
-        <v/>
-      </c>
-      <c r="B63" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="B63" s="7">
         <f>IF('[1]Regular Symbol'!U65="","",'[1]Regular Symbol'!U65)</f>
-        <v/>
-      </c>
-      <c r="C63" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="C63" s="7">
         <f>IF('[1]Regular Symbol'!V65="","",'[1]Regular Symbol'!V65)</f>
-        <v/>
-      </c>
-      <c r="D63" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="D63" s="7">
         <f>IF('[1]Regular Symbol'!W65="","",'[1]Regular Symbol'!W65)</f>
-        <v/>
-      </c>
-      <c r="E63" s="7" t="str">
+        <v>5</v>
+      </c>
+      <c r="E63" s="7">
         <f>IF('[1]Regular Symbol'!X65="","",'[1]Regular Symbol'!X65)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="7" t="str">
+      <c r="A64" s="7">
         <f>IF('[1]Regular Symbol'!T66="","",'[1]Regular Symbol'!T66)</f>
-        <v/>
-      </c>
-      <c r="B64" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="B64" s="7">
         <f>IF('[1]Regular Symbol'!U66="","",'[1]Regular Symbol'!U66)</f>
-        <v/>
-      </c>
-      <c r="C64" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="C64" s="7">
         <f>IF('[1]Regular Symbol'!V66="","",'[1]Regular Symbol'!V66)</f>
-        <v/>
-      </c>
-      <c r="D64" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="D64" s="7">
         <f>IF('[1]Regular Symbol'!W66="","",'[1]Regular Symbol'!W66)</f>
-        <v/>
-      </c>
-      <c r="E64" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="E64" s="7">
         <f>IF('[1]Regular Symbol'!X66="","",'[1]Regular Symbol'!X66)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="7" t="str">
+      <c r="A65" s="7">
         <f>IF('[1]Regular Symbol'!T67="","",'[1]Regular Symbol'!T67)</f>
-        <v/>
-      </c>
-      <c r="B65" s="7" t="str">
+        <v>1</v>
+      </c>
+      <c r="B65" s="7">
         <f>IF('[1]Regular Symbol'!U67="","",'[1]Regular Symbol'!U67)</f>
-        <v/>
-      </c>
-      <c r="C65" s="7" t="str">
+        <v>10</v>
+      </c>
+      <c r="C65" s="7">
         <f>IF('[1]Regular Symbol'!V67="","",'[1]Regular Symbol'!V67)</f>
-        <v/>
-      </c>
-      <c r="D65" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="D65" s="7">
         <f>IF('[1]Regular Symbol'!W67="","",'[1]Regular Symbol'!W67)</f>
-        <v/>
-      </c>
-      <c r="E65" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="E65" s="7">
         <f>IF('[1]Regular Symbol'!X67="","",'[1]Regular Symbol'!X67)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="7" t="str">
+      <c r="A66" s="7">
         <f>IF('[1]Regular Symbol'!T68="","",'[1]Regular Symbol'!T68)</f>
-        <v/>
-      </c>
-      <c r="B66" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="B66" s="7">
         <f>IF('[1]Regular Symbol'!U68="","",'[1]Regular Symbol'!U68)</f>
-        <v/>
-      </c>
-      <c r="C66" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="C66" s="7">
         <f>IF('[1]Regular Symbol'!V68="","",'[1]Regular Symbol'!V68)</f>
-        <v/>
-      </c>
-      <c r="D66" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="D66" s="7">
         <f>IF('[1]Regular Symbol'!W68="","",'[1]Regular Symbol'!W68)</f>
-        <v/>
-      </c>
-      <c r="E66" s="7" t="str">
+        <v>5</v>
+      </c>
+      <c r="E66" s="7">
         <f>IF('[1]Regular Symbol'!X68="","",'[1]Regular Symbol'!X68)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="7" t="str">
+      <c r="A67" s="7">
         <f>IF('[1]Regular Symbol'!T69="","",'[1]Regular Symbol'!T69)</f>
-        <v/>
-      </c>
-      <c r="B67" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="B67" s="7">
         <f>IF('[1]Regular Symbol'!U69="","",'[1]Regular Symbol'!U69)</f>
-        <v/>
-      </c>
-      <c r="C67" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="C67" s="7">
         <f>IF('[1]Regular Symbol'!V69="","",'[1]Regular Symbol'!V69)</f>
-        <v/>
-      </c>
-      <c r="D67" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="D67" s="7">
         <f>IF('[1]Regular Symbol'!W69="","",'[1]Regular Symbol'!W69)</f>
-        <v/>
-      </c>
-      <c r="E67" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="E67" s="7">
         <f>IF('[1]Regular Symbol'!X69="","",'[1]Regular Symbol'!X69)</f>
-        <v/>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="7" t="str">
+      <c r="A68" s="7">
         <f>IF('[1]Regular Symbol'!T70="","",'[1]Regular Symbol'!T70)</f>
-        <v/>
-      </c>
-      <c r="B68" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="B68" s="7">
         <f>IF('[1]Regular Symbol'!U70="","",'[1]Regular Symbol'!U70)</f>
-        <v/>
-      </c>
-      <c r="C68" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="C68" s="7">
         <f>IF('[1]Regular Symbol'!V70="","",'[1]Regular Symbol'!V70)</f>
-        <v/>
-      </c>
-      <c r="D68" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="D68" s="7">
         <f>IF('[1]Regular Symbol'!W70="","",'[1]Regular Symbol'!W70)</f>
-        <v/>
-      </c>
-      <c r="E68" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="E68" s="7">
         <f>IF('[1]Regular Symbol'!X70="","",'[1]Regular Symbol'!X70)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="7" t="str">
+      <c r="A69" s="7">
         <f>IF('[1]Regular Symbol'!T71="","",'[1]Regular Symbol'!T71)</f>
-        <v/>
-      </c>
-      <c r="B69" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="B69" s="7">
         <f>IF('[1]Regular Symbol'!U71="","",'[1]Regular Symbol'!U71)</f>
-        <v/>
-      </c>
-      <c r="C69" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="C69" s="7">
         <f>IF('[1]Regular Symbol'!V71="","",'[1]Regular Symbol'!V71)</f>
-        <v/>
-      </c>
-      <c r="D69" s="7" t="str">
+        <v>12</v>
+      </c>
+      <c r="D69" s="7">
         <f>IF('[1]Regular Symbol'!W71="","",'[1]Regular Symbol'!W71)</f>
-        <v/>
-      </c>
-      <c r="E69" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="E69" s="7">
         <f>IF('[1]Regular Symbol'!X71="","",'[1]Regular Symbol'!X71)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="7" t="str">
+      <c r="A70" s="7">
         <f>IF('[1]Regular Symbol'!T72="","",'[1]Regular Symbol'!T72)</f>
-        <v/>
-      </c>
-      <c r="B70" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="B70" s="7">
         <f>IF('[1]Regular Symbol'!U72="","",'[1]Regular Symbol'!U72)</f>
-        <v/>
-      </c>
-      <c r="C70" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="C70" s="7">
         <f>IF('[1]Regular Symbol'!V72="","",'[1]Regular Symbol'!V72)</f>
-        <v/>
-      </c>
-      <c r="D70" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="D70" s="7">
         <f>IF('[1]Regular Symbol'!W72="","",'[1]Regular Symbol'!W72)</f>
-        <v/>
-      </c>
-      <c r="E70" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="E70" s="7">
         <f>IF('[1]Regular Symbol'!X72="","",'[1]Regular Symbol'!X72)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="7" t="str">
+      <c r="A71" s="7">
         <f>IF('[1]Regular Symbol'!T73="","",'[1]Regular Symbol'!T73)</f>
-        <v/>
-      </c>
-      <c r="B71" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="B71" s="7">
         <f>IF('[1]Regular Symbol'!U73="","",'[1]Regular Symbol'!U73)</f>
-        <v/>
-      </c>
-      <c r="C71" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="C71" s="7">
         <f>IF('[1]Regular Symbol'!V73="","",'[1]Regular Symbol'!V73)</f>
-        <v/>
-      </c>
-      <c r="D71" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="D71" s="7">
         <f>IF('[1]Regular Symbol'!W73="","",'[1]Regular Symbol'!W73)</f>
-        <v/>
-      </c>
-      <c r="E71" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="E71" s="7">
         <f>IF('[1]Regular Symbol'!X73="","",'[1]Regular Symbol'!X73)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="7" t="str">
+      <c r="A72" s="7">
         <f>IF('[1]Regular Symbol'!T74="","",'[1]Regular Symbol'!T74)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="B72" s="7" t="str">
         <f>IF('[1]Regular Symbol'!U74="","",'[1]Regular Symbol'!U74)</f>
@@ -2830,19 +4022,19 @@
         <f>IF('[1]Regular Symbol'!V74="","",'[1]Regular Symbol'!V74)</f>
         <v/>
       </c>
-      <c r="D72" s="7" t="str">
+      <c r="D72" s="7">
         <f>IF('[1]Regular Symbol'!W74="","",'[1]Regular Symbol'!W74)</f>
-        <v/>
-      </c>
-      <c r="E72" s="7" t="str">
+        <v>3</v>
+      </c>
+      <c r="E72" s="7">
         <f>IF('[1]Regular Symbol'!X74="","",'[1]Regular Symbol'!X74)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="7" t="str">
+      <c r="A73" s="7">
         <f>IF('[1]Regular Symbol'!T75="","",'[1]Regular Symbol'!T75)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="B73" s="7" t="str">
         <f>IF('[1]Regular Symbol'!U75="","",'[1]Regular Symbol'!U75)</f>
@@ -2852,19 +4044,19 @@
         <f>IF('[1]Regular Symbol'!V75="","",'[1]Regular Symbol'!V75)</f>
         <v/>
       </c>
-      <c r="D73" s="7" t="str">
+      <c r="D73" s="7">
         <f>IF('[1]Regular Symbol'!W75="","",'[1]Regular Symbol'!W75)</f>
-        <v/>
-      </c>
-      <c r="E73" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="E73" s="7">
         <f>IF('[1]Regular Symbol'!X75="","",'[1]Regular Symbol'!X75)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="7" t="str">
+      <c r="A74" s="7">
         <f>IF('[1]Regular Symbol'!T76="","",'[1]Regular Symbol'!T76)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="B74" s="7" t="str">
         <f>IF('[1]Regular Symbol'!U76="","",'[1]Regular Symbol'!U76)</f>
@@ -2874,19 +4066,19 @@
         <f>IF('[1]Regular Symbol'!V76="","",'[1]Regular Symbol'!V76)</f>
         <v/>
       </c>
-      <c r="D74" s="7" t="str">
+      <c r="D74" s="7">
         <f>IF('[1]Regular Symbol'!W76="","",'[1]Regular Symbol'!W76)</f>
-        <v/>
-      </c>
-      <c r="E74" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="E74" s="7">
         <f>IF('[1]Regular Symbol'!X76="","",'[1]Regular Symbol'!X76)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="7" t="str">
+      <c r="A75" s="7">
         <f>IF('[1]Regular Symbol'!T77="","",'[1]Regular Symbol'!T77)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="B75" s="7" t="str">
         <f>IF('[1]Regular Symbol'!U77="","",'[1]Regular Symbol'!U77)</f>
@@ -2896,19 +4088,19 @@
         <f>IF('[1]Regular Symbol'!V77="","",'[1]Regular Symbol'!V77)</f>
         <v/>
       </c>
-      <c r="D75" s="7" t="str">
+      <c r="D75" s="7">
         <f>IF('[1]Regular Symbol'!W77="","",'[1]Regular Symbol'!W77)</f>
-        <v/>
-      </c>
-      <c r="E75" s="7" t="str">
+        <v>5</v>
+      </c>
+      <c r="E75" s="7">
         <f>IF('[1]Regular Symbol'!X77="","",'[1]Regular Symbol'!X77)</f>
-        <v/>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="7" t="str">
+      <c r="A76" s="7">
         <f>IF('[1]Regular Symbol'!T78="","",'[1]Regular Symbol'!T78)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="B76" s="7" t="str">
         <f>IF('[1]Regular Symbol'!U78="","",'[1]Regular Symbol'!U78)</f>
@@ -2918,19 +4110,19 @@
         <f>IF('[1]Regular Symbol'!V78="","",'[1]Regular Symbol'!V78)</f>
         <v/>
       </c>
-      <c r="D76" s="7" t="str">
+      <c r="D76" s="7">
         <f>IF('[1]Regular Symbol'!W78="","",'[1]Regular Symbol'!W78)</f>
-        <v/>
-      </c>
-      <c r="E76" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="E76" s="7">
         <f>IF('[1]Regular Symbol'!X78="","",'[1]Regular Symbol'!X78)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="7" t="str">
+      <c r="A77" s="7">
         <f>IF('[1]Regular Symbol'!T79="","",'[1]Regular Symbol'!T79)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="B77" s="7" t="str">
         <f>IF('[1]Regular Symbol'!U79="","",'[1]Regular Symbol'!U79)</f>
@@ -2940,19 +4132,19 @@
         <f>IF('[1]Regular Symbol'!V79="","",'[1]Regular Symbol'!V79)</f>
         <v/>
       </c>
-      <c r="D77" s="7" t="str">
+      <c r="D77" s="7">
         <f>IF('[1]Regular Symbol'!W79="","",'[1]Regular Symbol'!W79)</f>
-        <v/>
-      </c>
-      <c r="E77" s="7" t="str">
+        <v>12</v>
+      </c>
+      <c r="E77" s="7">
         <f>IF('[1]Regular Symbol'!X79="","",'[1]Regular Symbol'!X79)</f>
-        <v/>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="7" t="str">
+      <c r="A78" s="7">
         <f>IF('[1]Regular Symbol'!T80="","",'[1]Regular Symbol'!T80)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="B78" s="7" t="str">
         <f>IF('[1]Regular Symbol'!U80="","",'[1]Regular Symbol'!U80)</f>
@@ -2962,19 +4154,19 @@
         <f>IF('[1]Regular Symbol'!V80="","",'[1]Regular Symbol'!V80)</f>
         <v/>
       </c>
-      <c r="D78" s="7" t="str">
+      <c r="D78" s="7">
         <f>IF('[1]Regular Symbol'!W80="","",'[1]Regular Symbol'!W80)</f>
-        <v/>
-      </c>
-      <c r="E78" s="7" t="str">
+        <v>6</v>
+      </c>
+      <c r="E78" s="7">
         <f>IF('[1]Regular Symbol'!X80="","",'[1]Regular Symbol'!X80)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="7" t="str">
+      <c r="A79" s="7">
         <f>IF('[1]Regular Symbol'!T81="","",'[1]Regular Symbol'!T81)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="B79" s="7" t="str">
         <f>IF('[1]Regular Symbol'!U81="","",'[1]Regular Symbol'!U81)</f>
@@ -2984,19 +4176,19 @@
         <f>IF('[1]Regular Symbol'!V81="","",'[1]Regular Symbol'!V81)</f>
         <v/>
       </c>
-      <c r="D79" s="7" t="str">
+      <c r="D79" s="7">
         <f>IF('[1]Regular Symbol'!W81="","",'[1]Regular Symbol'!W81)</f>
-        <v/>
-      </c>
-      <c r="E79" s="7" t="str">
+        <v>2</v>
+      </c>
+      <c r="E79" s="7">
         <f>IF('[1]Regular Symbol'!X81="","",'[1]Regular Symbol'!X81)</f>
-        <v/>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="7" t="str">
+      <c r="A80" s="7">
         <f>IF('[1]Regular Symbol'!T82="","",'[1]Regular Symbol'!T82)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="B80" s="7" t="str">
         <f>IF('[1]Regular Symbol'!U82="","",'[1]Regular Symbol'!U82)</f>
@@ -3006,19 +4198,19 @@
         <f>IF('[1]Regular Symbol'!V82="","",'[1]Regular Symbol'!V82)</f>
         <v/>
       </c>
-      <c r="D80" s="7" t="str">
+      <c r="D80" s="7">
         <f>IF('[1]Regular Symbol'!W82="","",'[1]Regular Symbol'!W82)</f>
-        <v/>
-      </c>
-      <c r="E80" s="7" t="str">
+        <v>8</v>
+      </c>
+      <c r="E80" s="7">
         <f>IF('[1]Regular Symbol'!X82="","",'[1]Regular Symbol'!X82)</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="7" t="str">
+      <c r="A81" s="7">
         <f>IF('[1]Regular Symbol'!T83="","",'[1]Regular Symbol'!T83)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="B81" s="7" t="str">
         <f>IF('[1]Regular Symbol'!U83="","",'[1]Regular Symbol'!U83)</f>
@@ -3028,19 +4220,19 @@
         <f>IF('[1]Regular Symbol'!V83="","",'[1]Regular Symbol'!V83)</f>
         <v/>
       </c>
-      <c r="D81" s="7" t="str">
+      <c r="D81" s="7">
         <f>IF('[1]Regular Symbol'!W83="","",'[1]Regular Symbol'!W83)</f>
-        <v/>
-      </c>
-      <c r="E81" s="7" t="str">
+        <v>9</v>
+      </c>
+      <c r="E81" s="7">
         <f>IF('[1]Regular Symbol'!X83="","",'[1]Regular Symbol'!X83)</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="7" t="str">
+      <c r="A82" s="7">
         <f>IF('[1]Regular Symbol'!T84="","",'[1]Regular Symbol'!T84)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="B82" s="7" t="str">
         <f>IF('[1]Regular Symbol'!U84="","",'[1]Regular Symbol'!U84)</f>
@@ -3050,19 +4242,19 @@
         <f>IF('[1]Regular Symbol'!V84="","",'[1]Regular Symbol'!V84)</f>
         <v/>
       </c>
-      <c r="D82" s="7" t="str">
+      <c r="D82" s="7">
         <f>IF('[1]Regular Symbol'!W84="","",'[1]Regular Symbol'!W84)</f>
-        <v/>
-      </c>
-      <c r="E82" s="7" t="str">
+        <v>4</v>
+      </c>
+      <c r="E82" s="7">
         <f>IF('[1]Regular Symbol'!X84="","",'[1]Regular Symbol'!X84)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="7" t="str">
+      <c r="A83" s="7">
         <f>IF('[1]Regular Symbol'!T85="","",'[1]Regular Symbol'!T85)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="B83" s="7" t="str">
         <f>IF('[1]Regular Symbol'!U85="","",'[1]Regular Symbol'!U85)</f>
@@ -3072,19 +4264,19 @@
         <f>IF('[1]Regular Symbol'!V85="","",'[1]Regular Symbol'!V85)</f>
         <v/>
       </c>
-      <c r="D83" s="7" t="str">
+      <c r="D83" s="7">
         <f>IF('[1]Regular Symbol'!W85="","",'[1]Regular Symbol'!W85)</f>
-        <v/>
-      </c>
-      <c r="E83" s="7" t="str">
+        <v>7</v>
+      </c>
+      <c r="E83" s="7">
         <f>IF('[1]Regular Symbol'!X85="","",'[1]Regular Symbol'!X85)</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="7" t="str">
+      <c r="A84" s="7">
         <f>IF('[1]Regular Symbol'!T86="","",'[1]Regular Symbol'!T86)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="B84" s="7" t="str">
         <f>IF('[1]Regular Symbol'!U86="","",'[1]Regular Symbol'!U86)</f>
@@ -3094,9 +4286,9 @@
         <f>IF('[1]Regular Symbol'!V86="","",'[1]Regular Symbol'!V86)</f>
         <v/>
       </c>
-      <c r="D84" s="7" t="str">
+      <c r="D84" s="7">
         <f>IF('[1]Regular Symbol'!W86="","",'[1]Regular Symbol'!W86)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E84" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X86="","",'[1]Regular Symbol'!X86)</f>
@@ -3116,9 +4308,9 @@
         <f>IF('[1]Regular Symbol'!V87="","",'[1]Regular Symbol'!V87)</f>
         <v/>
       </c>
-      <c r="D85" s="7" t="str">
+      <c r="D85" s="7">
         <f>IF('[1]Regular Symbol'!W87="","",'[1]Regular Symbol'!W87)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E85" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X87="","",'[1]Regular Symbol'!X87)</f>
@@ -3138,9 +4330,9 @@
         <f>IF('[1]Regular Symbol'!V88="","",'[1]Regular Symbol'!V88)</f>
         <v/>
       </c>
-      <c r="D86" s="7" t="str">
+      <c r="D86" s="7">
         <f>IF('[1]Regular Symbol'!W88="","",'[1]Regular Symbol'!W88)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E86" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X88="","",'[1]Regular Symbol'!X88)</f>
@@ -3160,9 +4352,9 @@
         <f>IF('[1]Regular Symbol'!V89="","",'[1]Regular Symbol'!V89)</f>
         <v/>
       </c>
-      <c r="D87" s="7" t="str">
+      <c r="D87" s="7">
         <f>IF('[1]Regular Symbol'!W89="","",'[1]Regular Symbol'!W89)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E87" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X89="","",'[1]Regular Symbol'!X89)</f>
@@ -3182,9 +4374,9 @@
         <f>IF('[1]Regular Symbol'!V90="","",'[1]Regular Symbol'!V90)</f>
         <v/>
       </c>
-      <c r="D88" s="7" t="str">
+      <c r="D88" s="7">
         <f>IF('[1]Regular Symbol'!W90="","",'[1]Regular Symbol'!W90)</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="E88" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X90="","",'[1]Regular Symbol'!X90)</f>
@@ -3204,9 +4396,9 @@
         <f>IF('[1]Regular Symbol'!V91="","",'[1]Regular Symbol'!V91)</f>
         <v/>
       </c>
-      <c r="D89" s="7" t="str">
+      <c r="D89" s="7">
         <f>IF('[1]Regular Symbol'!W91="","",'[1]Regular Symbol'!W91)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E89" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X91="","",'[1]Regular Symbol'!X91)</f>
@@ -3226,9 +4418,9 @@
         <f>IF('[1]Regular Symbol'!V92="","",'[1]Regular Symbol'!V92)</f>
         <v/>
       </c>
-      <c r="D90" s="7" t="str">
+      <c r="D90" s="7">
         <f>IF('[1]Regular Symbol'!W92="","",'[1]Regular Symbol'!W92)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E90" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X92="","",'[1]Regular Symbol'!X92)</f>
@@ -3248,9 +4440,9 @@
         <f>IF('[1]Regular Symbol'!V93="","",'[1]Regular Symbol'!V93)</f>
         <v/>
       </c>
-      <c r="D91" s="7" t="str">
+      <c r="D91" s="7">
         <f>IF('[1]Regular Symbol'!W93="","",'[1]Regular Symbol'!W93)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E91" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X93="","",'[1]Regular Symbol'!X93)</f>
@@ -3270,9 +4462,9 @@
         <f>IF('[1]Regular Symbol'!V94="","",'[1]Regular Symbol'!V94)</f>
         <v/>
       </c>
-      <c r="D92" s="7" t="str">
+      <c r="D92" s="7">
         <f>IF('[1]Regular Symbol'!W94="","",'[1]Regular Symbol'!W94)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E92" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X94="","",'[1]Regular Symbol'!X94)</f>
@@ -3292,9 +4484,9 @@
         <f>IF('[1]Regular Symbol'!V95="","",'[1]Regular Symbol'!V95)</f>
         <v/>
       </c>
-      <c r="D93" s="7" t="str">
+      <c r="D93" s="7">
         <f>IF('[1]Regular Symbol'!W95="","",'[1]Regular Symbol'!W95)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E93" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X95="","",'[1]Regular Symbol'!X95)</f>
@@ -3314,9 +4506,9 @@
         <f>IF('[1]Regular Symbol'!V96="","",'[1]Regular Symbol'!V96)</f>
         <v/>
       </c>
-      <c r="D94" s="7" t="str">
+      <c r="D94" s="7">
         <f>IF('[1]Regular Symbol'!W96="","",'[1]Regular Symbol'!W96)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="E94" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X96="","",'[1]Regular Symbol'!X96)</f>
@@ -3336,9 +4528,9 @@
         <f>IF('[1]Regular Symbol'!V97="","",'[1]Regular Symbol'!V97)</f>
         <v/>
       </c>
-      <c r="D95" s="7" t="str">
+      <c r="D95" s="7">
         <f>IF('[1]Regular Symbol'!W97="","",'[1]Regular Symbol'!W97)</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="E95" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X97="","",'[1]Regular Symbol'!X97)</f>
@@ -3358,9 +4550,9 @@
         <f>IF('[1]Regular Symbol'!V98="","",'[1]Regular Symbol'!V98)</f>
         <v/>
       </c>
-      <c r="D96" s="7" t="str">
+      <c r="D96" s="7">
         <f>IF('[1]Regular Symbol'!W98="","",'[1]Regular Symbol'!W98)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E96" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X98="","",'[1]Regular Symbol'!X98)</f>
@@ -3380,9 +4572,9 @@
         <f>IF('[1]Regular Symbol'!V99="","",'[1]Regular Symbol'!V99)</f>
         <v/>
       </c>
-      <c r="D97" s="7" t="str">
+      <c r="D97" s="7">
         <f>IF('[1]Regular Symbol'!W99="","",'[1]Regular Symbol'!W99)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="E97" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X99="","",'[1]Regular Symbol'!X99)</f>
@@ -3402,9 +4594,9 @@
         <f>IF('[1]Regular Symbol'!V100="","",'[1]Regular Symbol'!V100)</f>
         <v/>
       </c>
-      <c r="D98" s="7" t="str">
+      <c r="D98" s="7">
         <f>IF('[1]Regular Symbol'!W100="","",'[1]Regular Symbol'!W100)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E98" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X100="","",'[1]Regular Symbol'!X100)</f>
@@ -3424,9 +4616,9 @@
         <f>IF('[1]Regular Symbol'!V101="","",'[1]Regular Symbol'!V101)</f>
         <v/>
       </c>
-      <c r="D99" s="7" t="str">
+      <c r="D99" s="7">
         <f>IF('[1]Regular Symbol'!W101="","",'[1]Regular Symbol'!W101)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E99" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X101="","",'[1]Regular Symbol'!X101)</f>
@@ -3446,9 +4638,9 @@
         <f>IF('[1]Regular Symbol'!V102="","",'[1]Regular Symbol'!V102)</f>
         <v/>
       </c>
-      <c r="D100" s="7" t="str">
+      <c r="D100" s="7">
         <f>IF('[1]Regular Symbol'!W102="","",'[1]Regular Symbol'!W102)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E100" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X102="","",'[1]Regular Symbol'!X102)</f>
@@ -3468,9 +4660,9 @@
         <f>IF('[1]Regular Symbol'!V103="","",'[1]Regular Symbol'!V103)</f>
         <v/>
       </c>
-      <c r="D101" s="7" t="str">
+      <c r="D101" s="7">
         <f>IF('[1]Regular Symbol'!W103="","",'[1]Regular Symbol'!W103)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E101" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X103="","",'[1]Regular Symbol'!X103)</f>
@@ -3490,9 +4682,9 @@
         <f>IF('[1]Regular Symbol'!V104="","",'[1]Regular Symbol'!V104)</f>
         <v/>
       </c>
-      <c r="D102" s="7" t="str">
+      <c r="D102" s="7">
         <f>IF('[1]Regular Symbol'!W104="","",'[1]Regular Symbol'!W104)</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="E102" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X104="","",'[1]Regular Symbol'!X104)</f>
@@ -3512,9 +4704,9 @@
         <f>IF('[1]Regular Symbol'!V105="","",'[1]Regular Symbol'!V105)</f>
         <v/>
       </c>
-      <c r="D103" s="7" t="str">
+      <c r="D103" s="7">
         <f>IF('[1]Regular Symbol'!W105="","",'[1]Regular Symbol'!W105)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E103" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X105="","",'[1]Regular Symbol'!X105)</f>
@@ -3534,9 +4726,9 @@
         <f>IF('[1]Regular Symbol'!V106="","",'[1]Regular Symbol'!V106)</f>
         <v/>
       </c>
-      <c r="D104" s="7" t="str">
+      <c r="D104" s="7">
         <f>IF('[1]Regular Symbol'!W106="","",'[1]Regular Symbol'!W106)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E104" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X106="","",'[1]Regular Symbol'!X106)</f>
@@ -3556,9 +4748,9 @@
         <f>IF('[1]Regular Symbol'!V107="","",'[1]Regular Symbol'!V107)</f>
         <v/>
       </c>
-      <c r="D105" s="7" t="str">
+      <c r="D105" s="7">
         <f>IF('[1]Regular Symbol'!W107="","",'[1]Regular Symbol'!W107)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="E105" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X107="","",'[1]Regular Symbol'!X107)</f>
@@ -3578,9 +4770,9 @@
         <f>IF('[1]Regular Symbol'!V108="","",'[1]Regular Symbol'!V108)</f>
         <v/>
       </c>
-      <c r="D106" s="7" t="str">
+      <c r="D106" s="7">
         <f>IF('[1]Regular Symbol'!W108="","",'[1]Regular Symbol'!W108)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E106" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X108="","",'[1]Regular Symbol'!X108)</f>
@@ -3600,9 +4792,9 @@
         <f>IF('[1]Regular Symbol'!V109="","",'[1]Regular Symbol'!V109)</f>
         <v/>
       </c>
-      <c r="D107" s="7" t="str">
+      <c r="D107" s="7">
         <f>IF('[1]Regular Symbol'!W109="","",'[1]Regular Symbol'!W109)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="E107" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X109="","",'[1]Regular Symbol'!X109)</f>
@@ -3622,9 +4814,9 @@
         <f>IF('[1]Regular Symbol'!V110="","",'[1]Regular Symbol'!V110)</f>
         <v/>
       </c>
-      <c r="D108" s="7" t="str">
+      <c r="D108" s="7">
         <f>IF('[1]Regular Symbol'!W110="","",'[1]Regular Symbol'!W110)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="E108" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X110="","",'[1]Regular Symbol'!X110)</f>
@@ -3644,9 +4836,9 @@
         <f>IF('[1]Regular Symbol'!V111="","",'[1]Regular Symbol'!V111)</f>
         <v/>
       </c>
-      <c r="D109" s="7" t="str">
+      <c r="D109" s="7">
         <f>IF('[1]Regular Symbol'!W111="","",'[1]Regular Symbol'!W111)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E109" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X111="","",'[1]Regular Symbol'!X111)</f>
@@ -3666,9 +4858,9 @@
         <f>IF('[1]Regular Symbol'!V112="","",'[1]Regular Symbol'!V112)</f>
         <v/>
       </c>
-      <c r="D110" s="7" t="str">
+      <c r="D110" s="7">
         <f>IF('[1]Regular Symbol'!W112="","",'[1]Regular Symbol'!W112)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="E110" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X112="","",'[1]Regular Symbol'!X112)</f>
@@ -3688,9 +4880,9 @@
         <f>IF('[1]Regular Symbol'!V113="","",'[1]Regular Symbol'!V113)</f>
         <v/>
       </c>
-      <c r="D111" s="7" t="str">
+      <c r="D111" s="7">
         <f>IF('[1]Regular Symbol'!W113="","",'[1]Regular Symbol'!W113)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E111" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X113="","",'[1]Regular Symbol'!X113)</f>
@@ -3710,9 +4902,9 @@
         <f>IF('[1]Regular Symbol'!V114="","",'[1]Regular Symbol'!V114)</f>
         <v/>
       </c>
-      <c r="D112" s="7" t="str">
+      <c r="D112" s="7">
         <f>IF('[1]Regular Symbol'!W114="","",'[1]Regular Symbol'!W114)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E112" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X114="","",'[1]Regular Symbol'!X114)</f>
@@ -3732,9 +4924,9 @@
         <f>IF('[1]Regular Symbol'!V115="","",'[1]Regular Symbol'!V115)</f>
         <v/>
       </c>
-      <c r="D113" s="7" t="str">
+      <c r="D113" s="7">
         <f>IF('[1]Regular Symbol'!W115="","",'[1]Regular Symbol'!W115)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="E113" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X115="","",'[1]Regular Symbol'!X115)</f>
@@ -3754,9 +4946,9 @@
         <f>IF('[1]Regular Symbol'!V116="","",'[1]Regular Symbol'!V116)</f>
         <v/>
       </c>
-      <c r="D114" s="7" t="str">
+      <c r="D114" s="7">
         <f>IF('[1]Regular Symbol'!W116="","",'[1]Regular Symbol'!W116)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E114" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X116="","",'[1]Regular Symbol'!X116)</f>
@@ -3776,9 +4968,9 @@
         <f>IF('[1]Regular Symbol'!V117="","",'[1]Regular Symbol'!V117)</f>
         <v/>
       </c>
-      <c r="D115" s="7" t="str">
+      <c r="D115" s="7">
         <f>IF('[1]Regular Symbol'!W117="","",'[1]Regular Symbol'!W117)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E115" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X117="","",'[1]Regular Symbol'!X117)</f>
@@ -3798,9 +4990,9 @@
         <f>IF('[1]Regular Symbol'!V118="","",'[1]Regular Symbol'!V118)</f>
         <v/>
       </c>
-      <c r="D116" s="7" t="str">
+      <c r="D116" s="7">
         <f>IF('[1]Regular Symbol'!W118="","",'[1]Regular Symbol'!W118)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="E116" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X118="","",'[1]Regular Symbol'!X118)</f>
@@ -3820,9 +5012,9 @@
         <f>IF('[1]Regular Symbol'!V119="","",'[1]Regular Symbol'!V119)</f>
         <v/>
       </c>
-      <c r="D117" s="7" t="str">
+      <c r="D117" s="7">
         <f>IF('[1]Regular Symbol'!W119="","",'[1]Regular Symbol'!W119)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E117" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X119="","",'[1]Regular Symbol'!X119)</f>
@@ -3842,9 +5034,9 @@
         <f>IF('[1]Regular Symbol'!V120="","",'[1]Regular Symbol'!V120)</f>
         <v/>
       </c>
-      <c r="D118" s="7" t="str">
+      <c r="D118" s="7">
         <f>IF('[1]Regular Symbol'!W120="","",'[1]Regular Symbol'!W120)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E118" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X120="","",'[1]Regular Symbol'!X120)</f>
@@ -3864,9 +5056,9 @@
         <f>IF('[1]Regular Symbol'!V121="","",'[1]Regular Symbol'!V121)</f>
         <v/>
       </c>
-      <c r="D119" s="7" t="str">
+      <c r="D119" s="7">
         <f>IF('[1]Regular Symbol'!W121="","",'[1]Regular Symbol'!W121)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E119" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X121="","",'[1]Regular Symbol'!X121)</f>
@@ -3886,9 +5078,9 @@
         <f>IF('[1]Regular Symbol'!V122="","",'[1]Regular Symbol'!V122)</f>
         <v/>
       </c>
-      <c r="D120" s="7" t="str">
+      <c r="D120" s="7">
         <f>IF('[1]Regular Symbol'!W122="","",'[1]Regular Symbol'!W122)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E120" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X122="","",'[1]Regular Symbol'!X122)</f>
@@ -3908,9 +5100,9 @@
         <f>IF('[1]Regular Symbol'!V123="","",'[1]Regular Symbol'!V123)</f>
         <v/>
       </c>
-      <c r="D121" s="7" t="str">
+      <c r="D121" s="7">
         <f>IF('[1]Regular Symbol'!W123="","",'[1]Regular Symbol'!W123)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E121" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X123="","",'[1]Regular Symbol'!X123)</f>
@@ -3930,9 +5122,9 @@
         <f>IF('[1]Regular Symbol'!V124="","",'[1]Regular Symbol'!V124)</f>
         <v/>
       </c>
-      <c r="D122" s="7" t="str">
+      <c r="D122" s="7">
         <f>IF('[1]Regular Symbol'!W124="","",'[1]Regular Symbol'!W124)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E122" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X124="","",'[1]Regular Symbol'!X124)</f>
@@ -3952,9 +5144,9 @@
         <f>IF('[1]Regular Symbol'!V125="","",'[1]Regular Symbol'!V125)</f>
         <v/>
       </c>
-      <c r="D123" s="7" t="str">
+      <c r="D123" s="7">
         <f>IF('[1]Regular Symbol'!W125="","",'[1]Regular Symbol'!W125)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E123" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X125="","",'[1]Regular Symbol'!X125)</f>
@@ -3974,9 +5166,9 @@
         <f>IF('[1]Regular Symbol'!V126="","",'[1]Regular Symbol'!V126)</f>
         <v/>
       </c>
-      <c r="D124" s="7" t="str">
+      <c r="D124" s="7">
         <f>IF('[1]Regular Symbol'!W126="","",'[1]Regular Symbol'!W126)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E124" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X126="","",'[1]Regular Symbol'!X126)</f>
@@ -3996,9 +5188,9 @@
         <f>IF('[1]Regular Symbol'!V127="","",'[1]Regular Symbol'!V127)</f>
         <v/>
       </c>
-      <c r="D125" s="7" t="str">
+      <c r="D125" s="7">
         <f>IF('[1]Regular Symbol'!W127="","",'[1]Regular Symbol'!W127)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E125" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X127="","",'[1]Regular Symbol'!X127)</f>
@@ -4018,9 +5210,9 @@
         <f>IF('[1]Regular Symbol'!V128="","",'[1]Regular Symbol'!V128)</f>
         <v/>
       </c>
-      <c r="D126" s="7" t="str">
+      <c r="D126" s="7">
         <f>IF('[1]Regular Symbol'!W128="","",'[1]Regular Symbol'!W128)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="E126" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X128="","",'[1]Regular Symbol'!X128)</f>
@@ -4040,9 +5232,9 @@
         <f>IF('[1]Regular Symbol'!V129="","",'[1]Regular Symbol'!V129)</f>
         <v/>
       </c>
-      <c r="D127" s="7" t="str">
+      <c r="D127" s="7">
         <f>IF('[1]Regular Symbol'!W129="","",'[1]Regular Symbol'!W129)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E127" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X129="","",'[1]Regular Symbol'!X129)</f>
@@ -4062,9 +5254,9 @@
         <f>IF('[1]Regular Symbol'!V130="","",'[1]Regular Symbol'!V130)</f>
         <v/>
       </c>
-      <c r="D128" s="7" t="str">
+      <c r="D128" s="7">
         <f>IF('[1]Regular Symbol'!W130="","",'[1]Regular Symbol'!W130)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E128" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X130="","",'[1]Regular Symbol'!X130)</f>
@@ -4084,9 +5276,9 @@
         <f>IF('[1]Regular Symbol'!V131="","",'[1]Regular Symbol'!V131)</f>
         <v/>
       </c>
-      <c r="D129" s="7" t="str">
+      <c r="D129" s="7">
         <f>IF('[1]Regular Symbol'!W131="","",'[1]Regular Symbol'!W131)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E129" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X131="","",'[1]Regular Symbol'!X131)</f>
@@ -4106,9 +5298,9 @@
         <f>IF('[1]Regular Symbol'!V132="","",'[1]Regular Symbol'!V132)</f>
         <v/>
       </c>
-      <c r="D130" s="7" t="str">
+      <c r="D130" s="7">
         <f>IF('[1]Regular Symbol'!W132="","",'[1]Regular Symbol'!W132)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E130" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X132="","",'[1]Regular Symbol'!X132)</f>
@@ -4128,9 +5320,9 @@
         <f>IF('[1]Regular Symbol'!V133="","",'[1]Regular Symbol'!V133)</f>
         <v/>
       </c>
-      <c r="D131" s="7" t="str">
+      <c r="D131" s="7">
         <f>IF('[1]Regular Symbol'!W133="","",'[1]Regular Symbol'!W133)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E131" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X133="","",'[1]Regular Symbol'!X133)</f>
@@ -4150,9 +5342,9 @@
         <f>IF('[1]Regular Symbol'!V134="","",'[1]Regular Symbol'!V134)</f>
         <v/>
       </c>
-      <c r="D132" s="7" t="str">
+      <c r="D132" s="7">
         <f>IF('[1]Regular Symbol'!W134="","",'[1]Regular Symbol'!W134)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E132" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X134="","",'[1]Regular Symbol'!X134)</f>
@@ -4172,9 +5364,9 @@
         <f>IF('[1]Regular Symbol'!V135="","",'[1]Regular Symbol'!V135)</f>
         <v/>
       </c>
-      <c r="D133" s="7" t="str">
+      <c r="D133" s="7">
         <f>IF('[1]Regular Symbol'!W135="","",'[1]Regular Symbol'!W135)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E133" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X135="","",'[1]Regular Symbol'!X135)</f>
@@ -4194,9 +5386,9 @@
         <f>IF('[1]Regular Symbol'!V136="","",'[1]Regular Symbol'!V136)</f>
         <v/>
       </c>
-      <c r="D134" s="7" t="str">
+      <c r="D134" s="7">
         <f>IF('[1]Regular Symbol'!W136="","",'[1]Regular Symbol'!W136)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E134" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X136="","",'[1]Regular Symbol'!X136)</f>
@@ -4216,9 +5408,9 @@
         <f>IF('[1]Regular Symbol'!V137="","",'[1]Regular Symbol'!V137)</f>
         <v/>
       </c>
-      <c r="D135" s="7" t="str">
+      <c r="D135" s="7">
         <f>IF('[1]Regular Symbol'!W137="","",'[1]Regular Symbol'!W137)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E135" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X137="","",'[1]Regular Symbol'!X137)</f>
@@ -4238,9 +5430,9 @@
         <f>IF('[1]Regular Symbol'!V138="","",'[1]Regular Symbol'!V138)</f>
         <v/>
       </c>
-      <c r="D136" s="7" t="str">
+      <c r="D136" s="7">
         <f>IF('[1]Regular Symbol'!W138="","",'[1]Regular Symbol'!W138)</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="E136" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X138="","",'[1]Regular Symbol'!X138)</f>
@@ -4260,9 +5452,9 @@
         <f>IF('[1]Regular Symbol'!V139="","",'[1]Regular Symbol'!V139)</f>
         <v/>
       </c>
-      <c r="D137" s="7" t="str">
+      <c r="D137" s="7">
         <f>IF('[1]Regular Symbol'!W139="","",'[1]Regular Symbol'!W139)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E137" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X139="","",'[1]Regular Symbol'!X139)</f>
@@ -4282,9 +5474,9 @@
         <f>IF('[1]Regular Symbol'!V140="","",'[1]Regular Symbol'!V140)</f>
         <v/>
       </c>
-      <c r="D138" s="7" t="str">
+      <c r="D138" s="7">
         <f>IF('[1]Regular Symbol'!W140="","",'[1]Regular Symbol'!W140)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E138" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X140="","",'[1]Regular Symbol'!X140)</f>
@@ -4304,9 +5496,9 @@
         <f>IF('[1]Regular Symbol'!V141="","",'[1]Regular Symbol'!V141)</f>
         <v/>
       </c>
-      <c r="D139" s="7" t="str">
+      <c r="D139" s="7">
         <f>IF('[1]Regular Symbol'!W141="","",'[1]Regular Symbol'!W141)</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="E139" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X141="","",'[1]Regular Symbol'!X141)</f>
@@ -4326,9 +5518,9 @@
         <f>IF('[1]Regular Symbol'!V142="","",'[1]Regular Symbol'!V142)</f>
         <v/>
       </c>
-      <c r="D140" s="7" t="str">
+      <c r="D140" s="7">
         <f>IF('[1]Regular Symbol'!W142="","",'[1]Regular Symbol'!W142)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="E140" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X142="","",'[1]Regular Symbol'!X142)</f>
@@ -4348,9 +5540,9 @@
         <f>IF('[1]Regular Symbol'!V143="","",'[1]Regular Symbol'!V143)</f>
         <v/>
       </c>
-      <c r="D141" s="7" t="str">
+      <c r="D141" s="7">
         <f>IF('[1]Regular Symbol'!W143="","",'[1]Regular Symbol'!W143)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E141" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X143="","",'[1]Regular Symbol'!X143)</f>
@@ -4370,9 +5562,9 @@
         <f>IF('[1]Regular Symbol'!V144="","",'[1]Regular Symbol'!V144)</f>
         <v/>
       </c>
-      <c r="D142" s="7" t="str">
+      <c r="D142" s="7">
         <f>IF('[1]Regular Symbol'!W144="","",'[1]Regular Symbol'!W144)</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="E142" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X144="","",'[1]Regular Symbol'!X144)</f>
@@ -4392,9 +5584,9 @@
         <f>IF('[1]Regular Symbol'!V145="","",'[1]Regular Symbol'!V145)</f>
         <v/>
       </c>
-      <c r="D143" s="7" t="str">
+      <c r="D143" s="7">
         <f>IF('[1]Regular Symbol'!W145="","",'[1]Regular Symbol'!W145)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E143" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X145="","",'[1]Regular Symbol'!X145)</f>
@@ -4414,9 +5606,9 @@
         <f>IF('[1]Regular Symbol'!V146="","",'[1]Regular Symbol'!V146)</f>
         <v/>
       </c>
-      <c r="D144" s="7" t="str">
+      <c r="D144" s="7">
         <f>IF('[1]Regular Symbol'!W146="","",'[1]Regular Symbol'!W146)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E144" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X146="","",'[1]Regular Symbol'!X146)</f>
@@ -4436,9 +5628,9 @@
         <f>IF('[1]Regular Symbol'!V147="","",'[1]Regular Symbol'!V147)</f>
         <v/>
       </c>
-      <c r="D145" s="7" t="str">
+      <c r="D145" s="7">
         <f>IF('[1]Regular Symbol'!W147="","",'[1]Regular Symbol'!W147)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E145" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X147="","",'[1]Regular Symbol'!X147)</f>
@@ -4458,9 +5650,9 @@
         <f>IF('[1]Regular Symbol'!V148="","",'[1]Regular Symbol'!V148)</f>
         <v/>
       </c>
-      <c r="D146" s="7" t="str">
+      <c r="D146" s="7">
         <f>IF('[1]Regular Symbol'!W148="","",'[1]Regular Symbol'!W148)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E146" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X148="","",'[1]Regular Symbol'!X148)</f>
@@ -4480,9 +5672,9 @@
         <f>IF('[1]Regular Symbol'!V149="","",'[1]Regular Symbol'!V149)</f>
         <v/>
       </c>
-      <c r="D147" s="7" t="str">
+      <c r="D147" s="7">
         <f>IF('[1]Regular Symbol'!W149="","",'[1]Regular Symbol'!W149)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E147" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X149="","",'[1]Regular Symbol'!X149)</f>
@@ -4502,9 +5694,9 @@
         <f>IF('[1]Regular Symbol'!V150="","",'[1]Regular Symbol'!V150)</f>
         <v/>
       </c>
-      <c r="D148" s="7" t="str">
+      <c r="D148" s="7">
         <f>IF('[1]Regular Symbol'!W150="","",'[1]Regular Symbol'!W150)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="E148" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X150="","",'[1]Regular Symbol'!X150)</f>
@@ -4524,9 +5716,9 @@
         <f>IF('[1]Regular Symbol'!V151="","",'[1]Regular Symbol'!V151)</f>
         <v/>
       </c>
-      <c r="D149" s="7" t="str">
+      <c r="D149" s="7">
         <f>IF('[1]Regular Symbol'!W151="","",'[1]Regular Symbol'!W151)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E149" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X151="","",'[1]Regular Symbol'!X151)</f>
@@ -4546,9 +5738,9 @@
         <f>IF('[1]Regular Symbol'!V152="","",'[1]Regular Symbol'!V152)</f>
         <v/>
       </c>
-      <c r="D150" s="7" t="str">
+      <c r="D150" s="7">
         <f>IF('[1]Regular Symbol'!W152="","",'[1]Regular Symbol'!W152)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="E150" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X152="","",'[1]Regular Symbol'!X152)</f>
@@ -4568,9 +5760,9 @@
         <f>IF('[1]Regular Symbol'!V153="","",'[1]Regular Symbol'!V153)</f>
         <v/>
       </c>
-      <c r="D151" s="7" t="str">
+      <c r="D151" s="7">
         <f>IF('[1]Regular Symbol'!W153="","",'[1]Regular Symbol'!W153)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E151" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X153="","",'[1]Regular Symbol'!X153)</f>
@@ -4590,9 +5782,9 @@
         <f>IF('[1]Regular Symbol'!V154="","",'[1]Regular Symbol'!V154)</f>
         <v/>
       </c>
-      <c r="D152" s="7" t="str">
+      <c r="D152" s="7">
         <f>IF('[1]Regular Symbol'!W154="","",'[1]Regular Symbol'!W154)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E152" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X154="","",'[1]Regular Symbol'!X154)</f>
@@ -4612,9 +5804,9 @@
         <f>IF('[1]Regular Symbol'!V155="","",'[1]Regular Symbol'!V155)</f>
         <v/>
       </c>
-      <c r="D153" s="7" t="str">
+      <c r="D153" s="7">
         <f>IF('[1]Regular Symbol'!W155="","",'[1]Regular Symbol'!W155)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E153" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X155="","",'[1]Regular Symbol'!X155)</f>
@@ -4634,9 +5826,9 @@
         <f>IF('[1]Regular Symbol'!V156="","",'[1]Regular Symbol'!V156)</f>
         <v/>
       </c>
-      <c r="D154" s="7" t="str">
+      <c r="D154" s="7">
         <f>IF('[1]Regular Symbol'!W156="","",'[1]Regular Symbol'!W156)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E154" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X156="","",'[1]Regular Symbol'!X156)</f>
@@ -4656,9 +5848,9 @@
         <f>IF('[1]Regular Symbol'!V157="","",'[1]Regular Symbol'!V157)</f>
         <v/>
       </c>
-      <c r="D155" s="7" t="str">
+      <c r="D155" s="7">
         <f>IF('[1]Regular Symbol'!W157="","",'[1]Regular Symbol'!W157)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E155" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X157="","",'[1]Regular Symbol'!X157)</f>
@@ -4678,9 +5870,9 @@
         <f>IF('[1]Regular Symbol'!V158="","",'[1]Regular Symbol'!V158)</f>
         <v/>
       </c>
-      <c r="D156" s="7" t="str">
+      <c r="D156" s="7">
         <f>IF('[1]Regular Symbol'!W158="","",'[1]Regular Symbol'!W158)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E156" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X158="","",'[1]Regular Symbol'!X158)</f>
@@ -4700,9 +5892,9 @@
         <f>IF('[1]Regular Symbol'!V159="","",'[1]Regular Symbol'!V159)</f>
         <v/>
       </c>
-      <c r="D157" s="7" t="str">
+      <c r="D157" s="7">
         <f>IF('[1]Regular Symbol'!W159="","",'[1]Regular Symbol'!W159)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E157" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X159="","",'[1]Regular Symbol'!X159)</f>
@@ -4722,9 +5914,9 @@
         <f>IF('[1]Regular Symbol'!V160="","",'[1]Regular Symbol'!V160)</f>
         <v/>
       </c>
-      <c r="D158" s="7" t="str">
+      <c r="D158" s="7">
         <f>IF('[1]Regular Symbol'!W160="","",'[1]Regular Symbol'!W160)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E158" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X160="","",'[1]Regular Symbol'!X160)</f>
@@ -4744,9 +5936,9 @@
         <f>IF('[1]Regular Symbol'!V161="","",'[1]Regular Symbol'!V161)</f>
         <v/>
       </c>
-      <c r="D159" s="7" t="str">
+      <c r="D159" s="7">
         <f>IF('[1]Regular Symbol'!W161="","",'[1]Regular Symbol'!W161)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="E159" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X161="","",'[1]Regular Symbol'!X161)</f>
@@ -4766,9 +5958,9 @@
         <f>IF('[1]Regular Symbol'!V162="","",'[1]Regular Symbol'!V162)</f>
         <v/>
       </c>
-      <c r="D160" s="7" t="str">
+      <c r="D160" s="7">
         <f>IF('[1]Regular Symbol'!W162="","",'[1]Regular Symbol'!W162)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E160" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X162="","",'[1]Regular Symbol'!X162)</f>
@@ -4788,9 +5980,9 @@
         <f>IF('[1]Regular Symbol'!V163="","",'[1]Regular Symbol'!V163)</f>
         <v/>
       </c>
-      <c r="D161" s="7" t="str">
+      <c r="D161" s="7">
         <f>IF('[1]Regular Symbol'!W163="","",'[1]Regular Symbol'!W163)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="E161" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X163="","",'[1]Regular Symbol'!X163)</f>
@@ -4810,9 +6002,9 @@
         <f>IF('[1]Regular Symbol'!V164="","",'[1]Regular Symbol'!V164)</f>
         <v/>
       </c>
-      <c r="D162" s="7" t="str">
+      <c r="D162" s="7">
         <f>IF('[1]Regular Symbol'!W164="","",'[1]Regular Symbol'!W164)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E162" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X164="","",'[1]Regular Symbol'!X164)</f>
@@ -4832,9 +6024,9 @@
         <f>IF('[1]Regular Symbol'!V165="","",'[1]Regular Symbol'!V165)</f>
         <v/>
       </c>
-      <c r="D163" s="7" t="str">
+      <c r="D163" s="7">
         <f>IF('[1]Regular Symbol'!W165="","",'[1]Regular Symbol'!W165)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="E163" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X165="","",'[1]Regular Symbol'!X165)</f>
@@ -4854,9 +6046,9 @@
         <f>IF('[1]Regular Symbol'!V166="","",'[1]Regular Symbol'!V166)</f>
         <v/>
       </c>
-      <c r="D164" s="7" t="str">
+      <c r="D164" s="7">
         <f>IF('[1]Regular Symbol'!W166="","",'[1]Regular Symbol'!W166)</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="E164" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X166="","",'[1]Regular Symbol'!X166)</f>
@@ -4876,9 +6068,9 @@
         <f>IF('[1]Regular Symbol'!V167="","",'[1]Regular Symbol'!V167)</f>
         <v/>
       </c>
-      <c r="D165" s="7" t="str">
+      <c r="D165" s="7">
         <f>IF('[1]Regular Symbol'!W167="","",'[1]Regular Symbol'!W167)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E165" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X167="","",'[1]Regular Symbol'!X167)</f>
@@ -4898,9 +6090,9 @@
         <f>IF('[1]Regular Symbol'!V168="","",'[1]Regular Symbol'!V168)</f>
         <v/>
       </c>
-      <c r="D166" s="7" t="str">
+      <c r="D166" s="7">
         <f>IF('[1]Regular Symbol'!W168="","",'[1]Regular Symbol'!W168)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E166" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X168="","",'[1]Regular Symbol'!X168)</f>
@@ -4920,9 +6112,9 @@
         <f>IF('[1]Regular Symbol'!V169="","",'[1]Regular Symbol'!V169)</f>
         <v/>
       </c>
-      <c r="D167" s="7" t="str">
+      <c r="D167" s="7">
         <f>IF('[1]Regular Symbol'!W169="","",'[1]Regular Symbol'!W169)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E167" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X169="","",'[1]Regular Symbol'!X169)</f>
@@ -4942,9 +6134,9 @@
         <f>IF('[1]Regular Symbol'!V170="","",'[1]Regular Symbol'!V170)</f>
         <v/>
       </c>
-      <c r="D168" s="7" t="str">
+      <c r="D168" s="7">
         <f>IF('[1]Regular Symbol'!W170="","",'[1]Regular Symbol'!W170)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E168" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X170="","",'[1]Regular Symbol'!X170)</f>
@@ -4964,9 +6156,9 @@
         <f>IF('[1]Regular Symbol'!V171="","",'[1]Regular Symbol'!V171)</f>
         <v/>
       </c>
-      <c r="D169" s="7" t="str">
+      <c r="D169" s="7">
         <f>IF('[1]Regular Symbol'!W171="","",'[1]Regular Symbol'!W171)</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="E169" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X171="","",'[1]Regular Symbol'!X171)</f>
@@ -4986,9 +6178,9 @@
         <f>IF('[1]Regular Symbol'!V172="","",'[1]Regular Symbol'!V172)</f>
         <v/>
       </c>
-      <c r="D170" s="7" t="str">
+      <c r="D170" s="7">
         <f>IF('[1]Regular Symbol'!W172="","",'[1]Regular Symbol'!W172)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E170" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X172="","",'[1]Regular Symbol'!X172)</f>
@@ -5008,9 +6200,9 @@
         <f>IF('[1]Regular Symbol'!V173="","",'[1]Regular Symbol'!V173)</f>
         <v/>
       </c>
-      <c r="D171" s="7" t="str">
+      <c r="D171" s="7">
         <f>IF('[1]Regular Symbol'!W173="","",'[1]Regular Symbol'!W173)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="E171" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X173="","",'[1]Regular Symbol'!X173)</f>
@@ -5030,9 +6222,9 @@
         <f>IF('[1]Regular Symbol'!V174="","",'[1]Regular Symbol'!V174)</f>
         <v/>
       </c>
-      <c r="D172" s="7" t="str">
+      <c r="D172" s="7">
         <f>IF('[1]Regular Symbol'!W174="","",'[1]Regular Symbol'!W174)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="E172" s="7" t="str">
         <f>IF('[1]Regular Symbol'!X174="","",'[1]Regular Symbol'!X174)</f>
